--- a/models/calculation engines/AL Cost Model/OP test.xlsx
+++ b/models/calculation engines/AL Cost Model/OP test.xlsx
@@ -442,7 +442,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Smelter</t>
+          <t>Smelter_x</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -499,13 +499,13 @@
         <v>400</v>
       </c>
       <c r="F2" t="n">
-        <v>5571.180120627898</v>
+        <v>5571.180129344809</v>
       </c>
       <c r="G2" t="n">
-        <v>10635.51433074091</v>
+        <v>10635.51434367647</v>
       </c>
       <c r="H2" t="n">
-        <v>4157.061946902655</v>
+        <v>4157.061950268412</v>
       </c>
     </row>
     <row r="3">
@@ -531,13 +531,13 @@
         <v>200</v>
       </c>
       <c r="F3" t="n">
-        <v>4524.983375692726</v>
+        <v>4524.98292388381</v>
       </c>
       <c r="G3" t="n">
-        <v>9450.85233297478</v>
+        <v>9450.851847875329</v>
       </c>
       <c r="H3" t="n">
-        <v>3915.646017699115</v>
+        <v>3915.646016393158</v>
       </c>
     </row>
     <row r="4">
@@ -563,13 +563,13 @@
         <v>560</v>
       </c>
       <c r="F4" t="n">
-        <v>5957.529628052758</v>
+        <v>5957.523334244415</v>
       </c>
       <c r="G4" t="n">
-        <v>9648.179982704773</v>
+        <v>9648.173242492636</v>
       </c>
       <c r="H4" t="n">
-        <v>2780.695322376738</v>
+        <v>2780.695320382538</v>
       </c>
     </row>
     <row r="5">
@@ -595,13 +595,13 @@
         <v>124</v>
       </c>
       <c r="F5" t="n">
-        <v>6922.894107011167</v>
+        <v>6922.894200655458</v>
       </c>
       <c r="G5" t="n">
-        <v>11624.7354880707</v>
+        <v>11624.73558588644</v>
       </c>
       <c r="H5" t="n">
-        <v>3610.766637168142</v>
+        <v>3610.766634890202</v>
       </c>
     </row>
     <row r="6">
@@ -627,13 +627,13 @@
         <v>180</v>
       </c>
       <c r="F6" t="n">
-        <v>5938.876253687316</v>
+        <v>5938.876347434133</v>
       </c>
       <c r="G6" t="n">
-        <v>10760.79481035119</v>
+        <v>10760.79490820767</v>
       </c>
       <c r="H6" t="n">
-        <v>3712.619469026549</v>
+        <v>3712.619466684142</v>
       </c>
     </row>
     <row r="7">
@@ -659,13 +659,13 @@
         <v>400</v>
       </c>
       <c r="F7" t="n">
-        <v>6936.616704593343</v>
+        <v>6936.616617980952</v>
       </c>
       <c r="G7" t="n">
-        <v>11774.81790460387</v>
+        <v>11774.81781412899</v>
       </c>
       <c r="H7" t="n">
-        <v>3779.294563843235</v>
+        <v>3779.294565946124</v>
       </c>
     </row>
     <row r="8">
@@ -691,13 +691,13 @@
         <v>160</v>
       </c>
       <c r="F8" t="n">
-        <v>5854.544691319005</v>
+        <v>5854.544604644952</v>
       </c>
       <c r="G8" t="n">
-        <v>11163.34425797763</v>
+        <v>11163.34416748876</v>
       </c>
       <c r="H8" t="n">
-        <v>3866.215625790138</v>
+        <v>3866.215627941614</v>
       </c>
     </row>
     <row r="9">
@@ -723,13 +723,13 @@
         <v>400</v>
       </c>
       <c r="F9" t="n">
-        <v>6771.843356666329</v>
+        <v>6771.837194438096</v>
       </c>
       <c r="G9" t="n">
-        <v>11803.92637566127</v>
+        <v>11803.91977542215</v>
       </c>
       <c r="H9" t="n">
-        <v>3850.119039190898</v>
+        <v>3850.119036360619</v>
       </c>
     </row>
     <row r="10">
@@ -755,13 +755,13 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>5751.356350084278</v>
+        <v>5751.356424091839</v>
       </c>
       <c r="G10" t="n">
-        <v>10612.32143132917</v>
+        <v>10612.3215052523</v>
       </c>
       <c r="H10" t="n">
-        <v>4161.251580278128</v>
+        <v>4161.251575319654</v>
       </c>
     </row>
     <row r="11">
@@ -787,13 +787,13 @@
         <v>200</v>
       </c>
       <c r="F11" t="n">
-        <v>6340.093906447533</v>
+        <v>6340.093838971429</v>
       </c>
       <c r="G11" t="n">
-        <v>11467.19301180715</v>
+        <v>11467.19293618701</v>
       </c>
       <c r="H11" t="n">
-        <v>4192.273072060683</v>
+        <v>4192.273068902588</v>
       </c>
     </row>
     <row r="12">
@@ -819,13 +819,13 @@
         <v>300</v>
       </c>
       <c r="F12" t="n">
-        <v>6340.093906447533</v>
+        <v>6340.093838971429</v>
       </c>
       <c r="G12" t="n">
-        <v>10545.62066673529</v>
+        <v>10545.62059374388</v>
       </c>
       <c r="H12" t="n">
-        <v>3186.436567635904</v>
+        <v>3186.436566933223</v>
       </c>
     </row>
     <row r="13">
@@ -851,13 +851,13 @@
         <v>300</v>
       </c>
       <c r="F13" t="n">
-        <v>6316.49184212726</v>
+        <v>6316.490285570079</v>
       </c>
       <c r="G13" t="n">
-        <v>11293.66973833926</v>
+        <v>11293.66807322793</v>
       </c>
       <c r="H13" t="n">
-        <v>3936.856611883692</v>
+        <v>3936.856613117108</v>
       </c>
     </row>
     <row r="14">
@@ -883,13 +883,13 @@
         <v>300</v>
       </c>
       <c r="F14" t="n">
-        <v>6316.49184212726</v>
+        <v>6316.490285570079</v>
       </c>
       <c r="G14" t="n">
-        <v>11147.24982212394</v>
+        <v>11147.2481569988</v>
       </c>
       <c r="H14" t="n">
-        <v>3895.812895069532</v>
+        <v>3895.812896290047</v>
       </c>
     </row>
     <row r="15">
@@ -915,13 +915,13 @@
         <v>352</v>
       </c>
       <c r="F15" t="n">
-        <v>6316.49184212726</v>
+        <v>6316.490285570079</v>
       </c>
       <c r="G15" t="n">
-        <v>11115.62488237218</v>
+        <v>11115.62321724705</v>
       </c>
       <c r="H15" t="n">
-        <v>3895.812895069532</v>
+        <v>3895.812896290047</v>
       </c>
     </row>
     <row r="16">
@@ -947,13 +947,13 @@
         <v>300</v>
       </c>
       <c r="F16" t="n">
-        <v>6316.49184212726</v>
+        <v>6316.490285570079</v>
       </c>
       <c r="G16" t="n">
-        <v>11253.93151033727</v>
+        <v>11253.92984521214</v>
       </c>
       <c r="H16" t="n">
-        <v>3895.812895069532</v>
+        <v>3895.812896290047</v>
       </c>
     </row>
     <row r="17">
@@ -979,13 +979,13 @@
         <v>320</v>
       </c>
       <c r="F17" t="n">
-        <v>5299.261045667084</v>
+        <v>5299.25948905168</v>
       </c>
       <c r="G17" t="n">
-        <v>10171.67222756214</v>
+        <v>10171.67056237467</v>
       </c>
       <c r="H17" t="n">
-        <v>3895.812895069532</v>
+        <v>3895.812896290047</v>
       </c>
     </row>
     <row r="18">
@@ -1011,13 +1011,13 @@
         <v>240</v>
       </c>
       <c r="F18" t="n">
-        <v>5299.261045667084</v>
+        <v>5299.25948905168</v>
       </c>
       <c r="G18" t="n">
-        <v>10081.99412730548</v>
+        <v>10081.99246211801</v>
       </c>
       <c r="H18" t="n">
-        <v>3895.812895069532</v>
+        <v>3895.812896290047</v>
       </c>
     </row>
     <row r="19">
@@ -1043,13 +1043,13 @@
         <v>312</v>
       </c>
       <c r="F19" t="n">
-        <v>6530.484761773071</v>
+        <v>6530.484855767721</v>
       </c>
       <c r="G19" t="n">
-        <v>12177.75062032755</v>
+        <v>12177.75072830249</v>
       </c>
       <c r="H19" t="n">
-        <v>4642.222503160557</v>
+        <v>4642.22251002162</v>
       </c>
     </row>
     <row r="20">
@@ -1075,13 +1075,13 @@
         <v>60</v>
       </c>
       <c r="F20" t="n">
-        <v>6468.194657343024</v>
+        <v>6468.194751215676</v>
       </c>
       <c r="G20" t="n">
-        <v>13061.45600573998</v>
+        <v>13061.45611371227</v>
       </c>
       <c r="H20" t="n">
-        <v>4722.930467762327</v>
+        <v>4722.930474742917</v>
       </c>
     </row>
     <row r="21">
@@ -1107,13 +1107,13 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>6468.194657343024</v>
+        <v>6468.194751215676</v>
       </c>
       <c r="G21" t="n">
-        <v>11314.1956961435</v>
+        <v>11314.19580399723</v>
       </c>
       <c r="H21" t="n">
-        <v>4100.010113780026</v>
+        <v>4100.010120649868</v>
       </c>
     </row>
     <row r="22">
@@ -1139,13 +1139,13 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>6650.956646386429</v>
+        <v>6650.956700853772</v>
       </c>
       <c r="G22" t="n">
-        <v>9769.241769369251</v>
+        <v>9769.241830534533</v>
       </c>
       <c r="H22" t="n">
-        <v>2474.159292035399</v>
+        <v>2474.159294700461</v>
       </c>
     </row>
     <row r="23">
@@ -1171,13 +1171,13 @@
         <v>280</v>
       </c>
       <c r="F23" t="n">
-        <v>6036.816897387273</v>
+        <v>6036.816815627471</v>
       </c>
       <c r="G23" t="n">
-        <v>9405.321291783919</v>
+        <v>9405.321204763932</v>
       </c>
       <c r="H23" t="n">
-        <v>2519.898862199747</v>
+        <v>2519.898862677143</v>
       </c>
     </row>
     <row r="24">
@@ -1203,13 +1203,13 @@
         <v>160</v>
       </c>
       <c r="F24" t="n">
-        <v>5614.54379319427</v>
+        <v>5614.543801919209</v>
       </c>
       <c r="G24" t="n">
-        <v>10727.63032028518</v>
+        <v>10727.63033335576</v>
       </c>
       <c r="H24" t="n">
-        <v>4302.336283185841</v>
+        <v>4302.336286669682</v>
       </c>
     </row>
     <row r="25">
@@ -1235,13 +1235,13 @@
         <v>68</v>
       </c>
       <c r="F25" t="n">
-        <v>5540.682489201431</v>
+        <v>5540.682583000676</v>
       </c>
       <c r="G25" t="n">
-        <v>10902.49812452132</v>
+        <v>10902.49823229646</v>
       </c>
       <c r="H25" t="n">
-        <v>4100.010113780026</v>
+        <v>4100.010120649868</v>
       </c>
     </row>
     <row r="26">
@@ -1267,13 +1267,13 @@
         <v>1248</v>
       </c>
       <c r="F26" t="n">
-        <v>5354.993785000704</v>
+        <v>5354.987349195811</v>
       </c>
       <c r="G26" t="n">
-        <v>8542.364749001186</v>
+        <v>8542.357858970408</v>
       </c>
       <c r="H26" t="n">
-        <v>2474.075853350189</v>
+        <v>2474.075853412047</v>
       </c>
     </row>
     <row r="27">
@@ -1299,13 +1299,13 @@
         <v>796</v>
       </c>
       <c r="F27" t="n">
-        <v>6607.144950379267</v>
+        <v>6607.144957549892</v>
       </c>
       <c r="G27" t="n">
-        <v>9166.698416735289</v>
+        <v>9166.69842680498</v>
       </c>
       <c r="H27" t="n">
-        <v>1769.14791403287</v>
+        <v>1769.147916268</v>
       </c>
     </row>
     <row r="28">
@@ -1331,13 +1331,13 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>5751.356350084278</v>
+        <v>5751.356424091839</v>
       </c>
       <c r="G28" t="n">
-        <v>8565.475153348947</v>
+        <v>8565.475230107988</v>
       </c>
       <c r="H28" t="n">
-        <v>2249.362199747155</v>
+        <v>2249.362197437599</v>
       </c>
     </row>
     <row r="29">
@@ -1363,13 +1363,13 @@
         <v>80</v>
       </c>
       <c r="F29" t="n">
-        <v>6403.065678729456</v>
+        <v>6403.065611862929</v>
       </c>
       <c r="G29" t="n">
-        <v>12141.44595465051</v>
+        <v>12141.44587744251</v>
       </c>
       <c r="H29" t="n">
-        <v>4612.978508217447</v>
+        <v>4612.978502966616</v>
       </c>
     </row>
     <row r="30">
@@ -1395,13 +1395,13 @@
         <v>88</v>
       </c>
       <c r="F30" t="n">
-        <v>6304.586735145386</v>
+        <v>6304.586648314404</v>
       </c>
       <c r="G30" t="n">
-        <v>10754.3262157209</v>
+        <v>10754.32612497599</v>
       </c>
       <c r="H30" t="n">
-        <v>3432.869785082174</v>
+        <v>3432.869787151431</v>
       </c>
     </row>
     <row r="31">
@@ -1427,13 +1427,13 @@
         <v>160</v>
       </c>
       <c r="F31" t="n">
-        <v>5614.54379319427</v>
+        <v>5614.543801919209</v>
       </c>
       <c r="G31" t="n">
-        <v>10554.86201211235</v>
+        <v>10554.8620199743</v>
       </c>
       <c r="H31" t="n">
-        <v>4140.959292035398</v>
+        <v>4140.959290654035</v>
       </c>
     </row>
     <row r="32">
@@ -1459,13 +1459,13 @@
         <v>400</v>
       </c>
       <c r="F32" t="n">
-        <v>5246.718136324474</v>
+        <v>5246.71713912381</v>
       </c>
       <c r="G32" t="n">
-        <v>10407.6046325495</v>
+        <v>10407.60356870016</v>
       </c>
       <c r="H32" t="n">
-        <v>4316.353982300885</v>
+        <v>4316.35398579612</v>
       </c>
     </row>
     <row r="33">
@@ -1491,13 +1491,13 @@
         <v>140</v>
       </c>
       <c r="F33" t="n">
-        <v>5571.180120627898</v>
+        <v>5571.180129344809</v>
       </c>
       <c r="G33" t="n">
-        <v>10621.75263687967</v>
+        <v>10621.75264975979</v>
       </c>
       <c r="H33" t="n">
-        <v>4093.345132743363</v>
+        <v>4093.345136057328</v>
       </c>
     </row>
     <row r="34">
@@ -1523,13 +1523,13 @@
         <v>108</v>
       </c>
       <c r="F34" t="n">
-        <v>6805.567181573957</v>
+        <v>6805.567275177582</v>
       </c>
       <c r="G34" t="n">
-        <v>11370.69802126562</v>
+        <v>11370.69811914578</v>
       </c>
       <c r="H34" t="n">
-        <v>3451.451327433628</v>
+        <v>3451.451325256527</v>
       </c>
     </row>
     <row r="35">
@@ -1555,13 +1555,13 @@
         <v>80</v>
       </c>
       <c r="F35" t="n">
-        <v>5607.847116519173</v>
+        <v>5607.847120089051</v>
       </c>
       <c r="G35" t="n">
-        <v>12452.36474447731</v>
+        <v>12452.36474656602</v>
       </c>
       <c r="H35" t="n">
-        <v>5213.266750948167</v>
+        <v>5213.266749329276</v>
       </c>
     </row>
     <row r="36">
@@ -1587,13 +1587,13 @@
         <v>400</v>
       </c>
       <c r="F36" t="n">
-        <v>6362.961309317605</v>
+        <v>6362.959213180951</v>
       </c>
       <c r="G36" t="n">
-        <v>11820.38039108555</v>
+        <v>11820.37814798623</v>
       </c>
       <c r="H36" t="n">
-        <v>4504.417193426043</v>
+        <v>4504.417194360032</v>
       </c>
     </row>
     <row r="37">
@@ -1619,13 +1619,13 @@
         <v>100</v>
       </c>
       <c r="F37" t="n">
-        <v>5607.847116519173</v>
+        <v>5607.847120089051</v>
       </c>
       <c r="G37" t="n">
-        <v>11414.78420488465</v>
+        <v>11414.78420879284</v>
       </c>
       <c r="H37" t="n">
-        <v>4607.957016434892</v>
+        <v>4607.957016515525</v>
       </c>
     </row>
     <row r="38">
@@ -1651,13 +1651,13 @@
         <v>68</v>
       </c>
       <c r="F38" t="n">
-        <v>6832.011317951958</v>
+        <v>6832.011341272144</v>
       </c>
       <c r="G38" t="n">
-        <v>11668.87956457539</v>
+        <v>11668.8795888074</v>
       </c>
       <c r="H38" t="n">
-        <v>3095.340075853351</v>
+        <v>3095.340075167455</v>
       </c>
     </row>
     <row r="39">
@@ -1683,13 +1683,13 @@
         <v>220</v>
       </c>
       <c r="F39" t="n">
-        <v>6498.422219773427</v>
+        <v>6498.425696342856</v>
       </c>
       <c r="G39" t="n">
-        <v>11699.23605985889</v>
+        <v>11699.23977652117</v>
       </c>
       <c r="H39" t="n">
-        <v>4164.039190897597</v>
+        <v>4164.039185935795</v>
       </c>
     </row>
     <row r="40">
@@ -1715,13 +1715,13 @@
         <v>204</v>
       </c>
       <c r="F40" t="n">
-        <v>6498.422219773427</v>
+        <v>6498.425696342856</v>
       </c>
       <c r="G40" t="n">
-        <v>11613.30058856435</v>
+        <v>11613.30430533557</v>
       </c>
       <c r="H40" t="n">
-        <v>4078.821934260429</v>
+        <v>4078.821929400381</v>
       </c>
     </row>
     <row r="41">
@@ -1747,13 +1747,13 @@
         <v>220</v>
       </c>
       <c r="F41" t="n">
-        <v>6828.210551780445</v>
+        <v>6828.210625992036</v>
       </c>
       <c r="G41" t="n">
-        <v>11974.0994363357</v>
+        <v>11974.09951055646</v>
       </c>
       <c r="H41" t="n">
-        <v>4099.304677623261</v>
+        <v>4099.304672738755</v>
       </c>
     </row>
     <row r="42">
@@ -1779,13 +1779,13 @@
         <v>240</v>
       </c>
       <c r="F42" t="n">
-        <v>6828.210551780445</v>
+        <v>6828.210625992036</v>
       </c>
       <c r="G42" t="n">
-        <v>11889.78219211632</v>
+        <v>11889.7822663256</v>
       </c>
       <c r="H42" t="n">
-        <v>4108.286978508217</v>
+        <v>4108.286973612985</v>
       </c>
     </row>
     <row r="43">
@@ -1811,13 +1811,13 @@
         <v>160</v>
       </c>
       <c r="F43" t="n">
-        <v>6316.49184212726</v>
+        <v>6316.490285570079</v>
       </c>
       <c r="G43" t="n">
-        <v>10358.00233292684</v>
+        <v>10358.00066985534</v>
       </c>
       <c r="H43" t="n">
-        <v>3154.113780025285</v>
+        <v>3154.113783164033</v>
       </c>
     </row>
     <row r="44">
@@ -1843,13 +1843,13 @@
         <v>504</v>
       </c>
       <c r="F44" t="n">
-        <v>6976.351892119681</v>
+        <v>6976.351942057144</v>
       </c>
       <c r="G44" t="n">
-        <v>11565.11772719625</v>
+        <v>11565.11778060804</v>
       </c>
       <c r="H44" t="n">
-        <v>3591.757269279394</v>
+        <v>3591.757269232066</v>
       </c>
     </row>
     <row r="45">
@@ -1875,13 +1875,13 @@
         <v>400</v>
       </c>
       <c r="F45" t="n">
-        <v>7024.671571797301</v>
+        <v>7024.671490016645</v>
       </c>
       <c r="G45" t="n">
-        <v>10174.48841447519</v>
+        <v>10174.48832531911</v>
       </c>
       <c r="H45" t="n">
-        <v>2299.721871049304</v>
+        <v>2299.721869552305</v>
       </c>
     </row>
     <row r="46">
@@ -1907,13 +1907,13 @@
         <v>680</v>
       </c>
       <c r="F46" t="n">
-        <v>5979.763939262198</v>
+        <v>5979.757645449796</v>
       </c>
       <c r="G46" t="n">
-        <v>9205.911184336044</v>
+        <v>9205.904446756793</v>
       </c>
       <c r="H46" t="n">
-        <v>2476.597977243995</v>
+        <v>2476.597977713142</v>
       </c>
     </row>
     <row r="47">
@@ -1939,13 +1939,13 @@
         <v>840</v>
       </c>
       <c r="F47" t="n">
-        <v>5699.096134224377</v>
+        <v>5699.100834910095</v>
       </c>
       <c r="G47" t="n">
-        <v>9068.484537859886</v>
+        <v>9068.489570357964</v>
       </c>
       <c r="H47" t="n">
-        <v>2587.407486093553</v>
+        <v>2587.407486092854</v>
       </c>
     </row>
     <row r="48">
@@ -1971,13 +1971,13 @@
         <v>360</v>
       </c>
       <c r="F48" t="n">
-        <v>5709.009358933836</v>
+        <v>5709.00943294804</v>
       </c>
       <c r="G48" t="n">
-        <v>10037.1130602069</v>
+        <v>10037.11313797004</v>
       </c>
       <c r="H48" t="n">
-        <v>3383.446836915298</v>
+        <v>3383.446835536998</v>
       </c>
     </row>
     <row r="49">
@@ -2003,13 +2003,13 @@
         <v>1200</v>
       </c>
       <c r="F49" t="n">
-        <v>7280.263645543615</v>
+        <v>7280.263558768563</v>
       </c>
       <c r="G49" t="n">
-        <v>12054.06215471847</v>
+        <v>12054.06206338887</v>
       </c>
       <c r="H49" t="n">
-        <v>3795.92954614412</v>
+        <v>3795.929547611307</v>
       </c>
     </row>
     <row r="50">
@@ -2035,13 +2035,13 @@
         <v>0</v>
       </c>
       <c r="F50" t="n">
-        <v>6076.513589338391</v>
+        <v>6076.513638925595</v>
       </c>
       <c r="G50" t="n">
-        <v>10946.95094108971</v>
+        <v>10946.95099118636</v>
       </c>
       <c r="H50" t="n">
-        <v>4148.660366624526</v>
+        <v>4148.660363830893</v>
       </c>
     </row>
     <row r="51">
@@ -2067,13 +2067,13 @@
         <v>0</v>
       </c>
       <c r="F51" t="n">
-        <v>5617.46593346717</v>
+        <v>5617.465942910564</v>
       </c>
       <c r="G51" t="n">
-        <v>10505.12276874991</v>
+        <v>10505.12277682142</v>
       </c>
       <c r="H51" t="n">
-        <v>4195.011378002529</v>
+        <v>4195.01137609845</v>
       </c>
     </row>
     <row r="52">
@@ -2099,13 +2099,13 @@
         <v>400</v>
       </c>
       <c r="F52" t="n">
-        <v>4754.009807501741</v>
+        <v>4754.00947081826</v>
       </c>
       <c r="G52" t="n">
-        <v>9960.211246441584</v>
+        <v>9960.210889734168</v>
       </c>
       <c r="H52" t="n">
-        <v>4316.353982300885</v>
+        <v>4316.35398579612</v>
       </c>
     </row>
     <row r="53">
@@ -2131,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="F53" t="n">
-        <v>6562.042393644164</v>
+        <v>6562.042402590476</v>
       </c>
       <c r="G53" t="n">
-        <v>11274.9717786406</v>
+        <v>11274.97178628993</v>
       </c>
       <c r="H53" t="n">
-        <v>3969.524652338812</v>
+        <v>3969.524650537483</v>
       </c>
     </row>
     <row r="54">
@@ -2163,13 +2163,13 @@
         <v>0</v>
       </c>
       <c r="F54" t="n">
-        <v>5751.356350084278</v>
+        <v>5751.356424091839</v>
       </c>
       <c r="G54" t="n">
-        <v>10645.48124392677</v>
+        <v>10645.48131781032</v>
       </c>
       <c r="H54" t="n">
-        <v>4192.225031605562</v>
+        <v>4192.225026610104</v>
       </c>
     </row>
     <row r="55">
@@ -2195,13 +2195,13 @@
         <v>240</v>
       </c>
       <c r="F55" t="n">
-        <v>6263.032849083437</v>
+        <v>6263.032762250163</v>
       </c>
       <c r="G55" t="n">
-        <v>11090.25020303556</v>
+        <v>11090.25011164387</v>
       </c>
       <c r="H55" t="n">
-        <v>3756.705006321112</v>
+        <v>3756.705007788521</v>
       </c>
     </row>
     <row r="56">
@@ -2227,13 +2227,13 @@
         <v>180</v>
       </c>
       <c r="F56" t="n">
-        <v>6703.89101085124</v>
+        <v>6703.891084696839</v>
       </c>
       <c r="G56" t="n">
-        <v>12525.26296681915</v>
+        <v>12525.26304572655</v>
       </c>
       <c r="H56" t="n">
-        <v>4760.370164348926</v>
+        <v>4760.370164208041</v>
       </c>
     </row>
     <row r="57">
@@ -2259,13 +2259,13 @@
         <v>0</v>
       </c>
       <c r="F57" t="n">
-        <v>5897.134106089336</v>
+        <v>5897.134160673267</v>
       </c>
       <c r="G57" t="n">
-        <v>10802.32066766441</v>
+        <v>10802.32073077156</v>
       </c>
       <c r="H57" t="n">
-        <v>4192.945638432364</v>
+        <v>4192.945642794672</v>
       </c>
     </row>
     <row r="58">
@@ -2291,13 +2291,13 @@
         <v>352</v>
       </c>
       <c r="F58" t="n">
-        <v>5997.56250294985</v>
+        <v>5997.562421775639</v>
       </c>
       <c r="G58" t="n">
-        <v>10137.12982501379</v>
+        <v>10137.12973517276</v>
       </c>
       <c r="H58" t="n">
-        <v>3281.845764854615</v>
+        <v>3281.845762111377</v>
       </c>
     </row>
     <row r="59">
@@ -2323,13 +2323,13 @@
         <v>200</v>
       </c>
       <c r="F59" t="n">
-        <v>6771.843356666329</v>
+        <v>6771.837194438096</v>
       </c>
       <c r="G59" t="n">
-        <v>11346.13675379074</v>
+        <v>11346.13015653194</v>
       </c>
       <c r="H59" t="n">
-        <v>3529.898862199747</v>
+        <v>3529.89886215328</v>
       </c>
     </row>
     <row r="60">
@@ -2355,13 +2355,13 @@
         <v>240</v>
       </c>
       <c r="F60" t="n">
-        <v>6771.843356666329</v>
+        <v>6771.837194438096</v>
       </c>
       <c r="G60" t="n">
-        <v>11317.51215665368</v>
+        <v>11317.50555939436</v>
       </c>
       <c r="H60" t="n">
-        <v>3565.208596713022</v>
+        <v>3565.208596666063</v>
       </c>
     </row>
     <row r="61">
@@ -2387,13 +2387,13 @@
         <v>340</v>
       </c>
       <c r="F61" t="n">
-        <v>5689.827762326169</v>
+        <v>5689.827812068344</v>
       </c>
       <c r="G61" t="n">
-        <v>10230.06178864784</v>
+        <v>10230.06184185095</v>
       </c>
       <c r="H61" t="n">
-        <v>3565.208596713022</v>
+        <v>3565.208596666063</v>
       </c>
     </row>
     <row r="62">
@@ -2419,13 +2419,13 @@
         <v>80</v>
       </c>
       <c r="F62" t="n">
-        <v>6076.513589338391</v>
+        <v>6076.513638925595</v>
       </c>
       <c r="G62" t="n">
-        <v>10815.01681614426</v>
+        <v>10815.01686918146</v>
       </c>
       <c r="H62" t="n">
-        <v>3565.208596713022</v>
+        <v>3565.208596666063</v>
       </c>
     </row>
     <row r="63">
@@ -2451,13 +2451,13 @@
         <v>0</v>
       </c>
       <c r="F63" t="n">
-        <v>6076.513589338391</v>
+        <v>6076.513638925595</v>
       </c>
       <c r="G63" t="n">
-        <v>10350.73703687316</v>
+        <v>10350.73708990997</v>
       </c>
       <c r="H63" t="n">
-        <v>3591.757269279394</v>
+        <v>3591.757269232066</v>
       </c>
     </row>
     <row r="64">
@@ -2483,13 +2483,13 @@
         <v>260</v>
       </c>
       <c r="F64" t="n">
-        <v>6790.224309047282</v>
+        <v>6790.218146819049</v>
       </c>
       <c r="G64" t="n">
-        <v>11470.35507331918</v>
+        <v>11470.34847605985</v>
       </c>
       <c r="H64" t="n">
-        <v>3565.208596713022</v>
+        <v>3565.208596666063</v>
       </c>
     </row>
     <row r="65">
@@ -2515,13 +2515,13 @@
         <v>0</v>
       </c>
       <c r="F65" t="n">
-        <v>5834.200537441253</v>
+        <v>5834.203759687391</v>
       </c>
       <c r="G65" t="n">
-        <v>10062.89683774163</v>
+        <v>10062.90028739017</v>
       </c>
       <c r="H65" t="n">
-        <v>3565.208596713022</v>
+        <v>3565.208596666063</v>
       </c>
     </row>
     <row r="66">
@@ -2547,13 +2547,13 @@
         <v>400</v>
       </c>
       <c r="F66" t="n">
-        <v>6006.144981626632</v>
+        <v>6006.144909163905</v>
       </c>
       <c r="G66" t="n">
-        <v>10650.26757033317</v>
+        <v>10650.26749307353</v>
       </c>
       <c r="H66" t="n">
-        <v>3657.373957016436</v>
+        <v>3657.373957313572</v>
       </c>
     </row>
     <row r="67">
@@ -2579,13 +2579,13 @@
         <v>520</v>
       </c>
       <c r="F67" t="n">
-        <v>6886.909491361145</v>
+        <v>6886.909418845217</v>
       </c>
       <c r="G67" t="n">
-        <v>11598.57638699111</v>
+        <v>11598.57630968009</v>
       </c>
       <c r="H67" t="n">
-        <v>3721.104788874844</v>
+        <v>3721.104789177178</v>
       </c>
     </row>
     <row r="68">
@@ -2611,13 +2611,13 @@
         <v>260</v>
       </c>
       <c r="F68" t="n">
-        <v>5870.870173830595</v>
+        <v>5870.870216152976</v>
       </c>
       <c r="G68" t="n">
-        <v>9680.091123774939</v>
+        <v>9680.091168309078</v>
       </c>
       <c r="H68" t="n">
-        <v>3021.709228824273</v>
+        <v>3021.709228099714</v>
       </c>
     </row>
     <row r="69">
@@ -2643,13 +2643,13 @@
         <v>620</v>
       </c>
       <c r="F69" t="n">
-        <v>5764.844399494312</v>
+        <v>5764.844441815976</v>
       </c>
       <c r="G69" t="n">
-        <v>9629.819927988032</v>
+        <v>9629.819972517649</v>
       </c>
       <c r="H69" t="n">
-        <v>3036.310998735778</v>
+        <v>3036.310998007714</v>
       </c>
     </row>
     <row r="70">
@@ -2675,13 +2675,13 @@
         <v>0</v>
       </c>
       <c r="F70" t="n">
-        <v>6031.162593184199</v>
+        <v>6031.162704626476</v>
       </c>
       <c r="G70" t="n">
-        <v>10873.65734989205</v>
+        <v>10873.65746719624</v>
       </c>
       <c r="H70" t="n">
-        <v>4125.550316055625</v>
+        <v>4125.5503141832</v>
       </c>
     </row>
     <row r="71">
@@ -2707,13 +2707,13 @@
         <v>600</v>
       </c>
       <c r="F71" t="n">
-        <v>6002.342393644164</v>
+        <v>6002.342402590477</v>
       </c>
       <c r="G71" t="n">
-        <v>10380.52202783136</v>
+        <v>10380.52204212828</v>
       </c>
       <c r="H71" t="n">
-        <v>3492.533501896334</v>
+        <v>3492.533506304285</v>
       </c>
     </row>
     <row r="72">
@@ -2739,13 +2739,13 @@
         <v>224</v>
       </c>
       <c r="F72" t="n">
-        <v>6002.342393644164</v>
+        <v>6002.342402590477</v>
       </c>
       <c r="G72" t="n">
-        <v>10473.23112809389</v>
+        <v>10473.23114243254</v>
       </c>
       <c r="H72" t="n">
-        <v>3523.303413400758</v>
+        <v>3523.303417847686</v>
       </c>
     </row>
     <row r="73">
@@ -2771,13 +2771,13 @@
         <v>0</v>
       </c>
       <c r="F73" t="n">
-        <v>5336.691074589126</v>
+        <v>5336.691007225829</v>
       </c>
       <c r="G73" t="n">
-        <v>10114.61872149922</v>
+        <v>10114.61864606554</v>
       </c>
       <c r="H73" t="n">
-        <v>4111.029709228826</v>
+        <v>4111.029706132091</v>
       </c>
     </row>
     <row r="74">
@@ -2803,13 +2803,13 @@
         <v>101</v>
       </c>
       <c r="F74" t="n">
-        <v>6682.06725558365</v>
+        <v>6682.06718794488</v>
       </c>
       <c r="G74" t="n">
-        <v>12213.78641508722</v>
+        <v>12213.78634324768</v>
       </c>
       <c r="H74" t="n">
-        <v>4443.069532237674</v>
+        <v>4443.069532773578</v>
       </c>
     </row>
     <row r="75">
@@ -2835,13 +2835,13 @@
         <v>0</v>
       </c>
       <c r="F75" t="n">
-        <v>6703.89101085124</v>
+        <v>6703.891084696839</v>
       </c>
       <c r="G75" t="n">
-        <v>11665.25364545375</v>
+        <v>11665.2537191639</v>
       </c>
       <c r="H75" t="n">
-        <v>4192.225031605562</v>
+        <v>4192.225026610104</v>
       </c>
     </row>
     <row r="76">
@@ -2867,13 +2867,13 @@
         <v>0</v>
       </c>
       <c r="F76" t="n">
-        <v>6132.353855983984</v>
+        <v>6132.353929926009</v>
       </c>
       <c r="G76" t="n">
-        <v>11053.3726914194</v>
+        <v>11053.37276523278</v>
       </c>
       <c r="H76" t="n">
-        <v>4192.225031605562</v>
+        <v>4192.225026610104</v>
       </c>
     </row>
     <row r="77">
@@ -2899,13 +2899,13 @@
         <v>0</v>
       </c>
       <c r="F77" t="n">
-        <v>6682.06725558365</v>
+        <v>6682.06718794488</v>
       </c>
       <c r="G77" t="n">
-        <v>11558.31177398924</v>
+        <v>11558.31169825812</v>
       </c>
       <c r="H77" t="n">
-        <v>4114.158027812895</v>
+        <v>4114.158024713798</v>
       </c>
     </row>
     <row r="78">
@@ -2931,13 +2931,13 @@
         <v>116</v>
       </c>
       <c r="F78" t="n">
-        <v>6922.894107011167</v>
+        <v>6922.894200655458</v>
       </c>
       <c r="G78" t="n">
-        <v>12072.04115340643</v>
+        <v>12072.04125120541</v>
       </c>
       <c r="H78" t="n">
-        <v>3635.492566371682</v>
+        <v>3635.492564078092</v>
       </c>
     </row>
     <row r="79">
@@ -2963,13 +2963,13 @@
         <v>0</v>
       </c>
       <c r="F79" t="n">
-        <v>5814.097849768224</v>
+        <v>5814.097943677707</v>
       </c>
       <c r="G79" t="n">
-        <v>9775.693304442128</v>
+        <v>9775.69340126311</v>
       </c>
       <c r="H79" t="n">
-        <v>3317.044247787611</v>
+        <v>3317.044244315306</v>
       </c>
     </row>
     <row r="80">
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="F80" t="n">
-        <v>6052.716925937632</v>
+        <v>6052.716844137745</v>
       </c>
       <c r="G80" t="n">
-        <v>10968.37148874718</v>
+        <v>10968.37139609565</v>
       </c>
       <c r="H80" t="n">
-        <v>4192.465233881163</v>
+        <v>4192.46522913841</v>
       </c>
     </row>
     <row r="81">
@@ -3027,13 +3027,13 @@
         <v>0</v>
       </c>
       <c r="F81" t="n">
-        <v>6036.816897387273</v>
+        <v>6036.816815627471</v>
       </c>
       <c r="G81" t="n">
-        <v>10889.67185380878</v>
+        <v>10889.67176236684</v>
       </c>
       <c r="H81" t="n">
-        <v>4134.854614412137</v>
+        <v>4134.854610759143</v>
       </c>
     </row>
     <row r="82">
@@ -3059,13 +3059,13 @@
         <v>400</v>
       </c>
       <c r="F82" t="n">
-        <v>5941.207529761904</v>
+        <v>5941.207448286763</v>
       </c>
       <c r="G82" t="n">
-        <v>9844.078563280329</v>
+        <v>9844.078475289349</v>
       </c>
       <c r="H82" t="n">
-        <v>2985.031605562579</v>
+        <v>2985.031604848342</v>
       </c>
     </row>
     <row r="83">
@@ -3091,13 +3091,13 @@
         <v>424</v>
       </c>
       <c r="F83" t="n">
-        <v>5941.207529761904</v>
+        <v>5941.207448286763</v>
       </c>
       <c r="G83" t="n">
-        <v>9684.885674375779</v>
+        <v>9684.885586397499</v>
       </c>
       <c r="H83" t="n">
-        <v>2935.606826801517</v>
+        <v>2935.606826099142</v>
       </c>
     </row>
     <row r="84">
@@ -3123,13 +3123,13 @@
         <v>0</v>
       </c>
       <c r="F84" t="n">
-        <v>7032.969199325746</v>
+        <v>7032.969118106279</v>
       </c>
       <c r="G84" t="n">
-        <v>11940.55567690439</v>
+        <v>11940.55558496187</v>
       </c>
       <c r="H84" t="n">
-        <v>4120.297092288243</v>
+        <v>4120.297087627338</v>
       </c>
     </row>
     <row r="85">
@@ -3155,13 +3155,13 @@
         <v>0</v>
       </c>
       <c r="F85" t="n">
-        <v>5721.347122840286</v>
+        <v>5721.34705530988</v>
       </c>
       <c r="G85" t="n">
-        <v>10528.84762771126</v>
+        <v>10528.84755209685</v>
       </c>
       <c r="H85" t="n">
-        <v>4113.290771175728</v>
+        <v>4113.290768077285</v>
       </c>
     </row>
     <row r="86">
@@ -3187,13 +3187,13 @@
         <v>0</v>
       </c>
       <c r="F86" t="n">
-        <v>6824.948713653604</v>
+        <v>6824.948755982976</v>
       </c>
       <c r="G86" t="n">
-        <v>11793.26221993753</v>
+        <v>11793.26226701494</v>
       </c>
       <c r="H86" t="n">
-        <v>4190.73577749684</v>
+        <v>4190.73577914087</v>
       </c>
     </row>
     <row r="87">
@@ -3219,13 +3219,13 @@
         <v>1200</v>
       </c>
       <c r="F87" t="n">
-        <v>4976.70481252322</v>
+        <v>4976.704821382476</v>
       </c>
       <c r="G87" t="n">
-        <v>8660.876437311248</v>
+        <v>8660.876446797252</v>
       </c>
       <c r="H87" t="n">
-        <v>2952.995448798988</v>
+        <v>2952.995448800285</v>
       </c>
     </row>
     <row r="88">
@@ -3251,13 +3251,13 @@
         <v>880</v>
       </c>
       <c r="F88" t="n">
-        <v>4976.70481252322</v>
+        <v>4976.704821382476</v>
       </c>
       <c r="G88" t="n">
-        <v>8676.816933582521</v>
+        <v>8676.816943068525</v>
       </c>
       <c r="H88" t="n">
-        <v>2952.995448798988</v>
+        <v>2952.995448800285</v>
       </c>
     </row>
     <row r="89">
@@ -3283,13 +3283,13 @@
         <v>200</v>
       </c>
       <c r="F89" t="n">
-        <v>5137.204281549769</v>
+        <v>5137.204290420877</v>
       </c>
       <c r="G89" t="n">
-        <v>8840.495071230023</v>
+        <v>8840.495080728713</v>
       </c>
       <c r="H89" t="n">
-        <v>2952.995448798988</v>
+        <v>2952.995448800285</v>
       </c>
     </row>
     <row r="90">
@@ -3315,13 +3315,13 @@
         <v>600</v>
       </c>
       <c r="F90" t="n">
-        <v>5077.016980664812</v>
+        <v>5077.016989531477</v>
       </c>
       <c r="G90" t="n">
-        <v>8780.827096367815</v>
+        <v>8780.82710586175</v>
       </c>
       <c r="H90" t="n">
-        <v>2952.995448798988</v>
+        <v>2952.995448800285</v>
       </c>
     </row>
     <row r="91">
@@ -3347,13 +3347,13 @@
         <v>600</v>
       </c>
       <c r="F91" t="n">
-        <v>5077.016980664812</v>
+        <v>5077.016989531477</v>
       </c>
       <c r="G91" t="n">
-        <v>8754.462239788816</v>
+        <v>8754.462249282751</v>
       </c>
       <c r="H91" t="n">
-        <v>2952.995448798988</v>
+        <v>2952.995448800285</v>
       </c>
     </row>
     <row r="92">
@@ -3379,13 +3379,13 @@
         <v>600</v>
       </c>
       <c r="F92" t="n">
-        <v>5077.016980664812</v>
+        <v>5077.016989531477</v>
       </c>
       <c r="G92" t="n">
-        <v>8758.926849543815</v>
+        <v>8758.926859037751</v>
       </c>
       <c r="H92" t="n">
-        <v>2952.995448798988</v>
+        <v>2952.995448800285</v>
       </c>
     </row>
     <row r="93">
@@ -3411,13 +3411,13 @@
         <v>600</v>
       </c>
       <c r="F93" t="n">
-        <v>5077.016980664812</v>
+        <v>5077.016989531477</v>
       </c>
       <c r="G93" t="n">
-        <v>8758.926849543815</v>
+        <v>8758.926859037751</v>
       </c>
       <c r="H93" t="n">
-        <v>2952.995448798988</v>
+        <v>2952.995448800285</v>
       </c>
     </row>
     <row r="94">
@@ -3443,13 +3443,13 @@
         <v>600</v>
       </c>
       <c r="F94" t="n">
-        <v>5077.016980664812</v>
+        <v>5077.016989531477</v>
       </c>
       <c r="G94" t="n">
-        <v>8760.197805805148</v>
+        <v>8760.197815299085</v>
       </c>
       <c r="H94" t="n">
-        <v>2952.995448798988</v>
+        <v>2952.995448800285</v>
       </c>
     </row>
     <row r="95">
@@ -3475,13 +3475,13 @@
         <v>280</v>
       </c>
       <c r="F95" t="n">
-        <v>5137.204281549769</v>
+        <v>5137.204290420877</v>
       </c>
       <c r="G95" t="n">
-        <v>8836.151262032452</v>
+        <v>8836.151271531144</v>
       </c>
       <c r="H95" t="n">
-        <v>2952.995448798988</v>
+        <v>2952.995448800285</v>
       </c>
     </row>
     <row r="96">
@@ -3507,13 +3507,13 @@
         <v>280</v>
       </c>
       <c r="F96" t="n">
-        <v>5137.204281549769</v>
+        <v>5137.204290420877</v>
       </c>
       <c r="G96" t="n">
-        <v>8824.301238341739</v>
+        <v>8824.301247840429</v>
       </c>
       <c r="H96" t="n">
-        <v>2952.995448798988</v>
+        <v>2952.995448800285</v>
       </c>
     </row>
     <row r="97">
@@ -3539,13 +3539,13 @@
         <v>200</v>
       </c>
       <c r="F97" t="n">
-        <v>5137.204281549769</v>
+        <v>5137.204290420877</v>
       </c>
       <c r="G97" t="n">
-        <v>8832.999105622024</v>
+        <v>8832.999115120716</v>
       </c>
       <c r="H97" t="n">
-        <v>2952.995448798988</v>
+        <v>2952.995448800285</v>
       </c>
     </row>
     <row r="98">
@@ -3571,13 +3571,13 @@
         <v>0</v>
       </c>
       <c r="F98" t="n">
-        <v>5614.54379319427</v>
+        <v>5614.543801919209</v>
       </c>
       <c r="G98" t="n">
-        <v>10504.00019004858</v>
+        <v>10504.00019789049</v>
       </c>
       <c r="H98" t="n">
-        <v>4196.884955752212</v>
+        <v>4196.884954352132</v>
       </c>
     </row>
     <row r="99">
@@ -3603,13 +3603,13 @@
         <v>800</v>
       </c>
       <c r="F99" t="n">
-        <v>6562.042393644164</v>
+        <v>6562.042402590476</v>
       </c>
       <c r="G99" t="n">
-        <v>11582.14057414102</v>
+        <v>11582.14058794099</v>
       </c>
       <c r="H99" t="n">
-        <v>3836.604298356516</v>
+        <v>3836.604302300286</v>
       </c>
     </row>
     <row r="100">
@@ -3635,13 +3635,13 @@
         <v>560</v>
       </c>
       <c r="F100" t="n">
-        <v>6562.042393644164</v>
+        <v>6562.042402590476</v>
       </c>
       <c r="G100" t="n">
-        <v>11115.46439938992</v>
+        <v>11115.46441296479</v>
       </c>
       <c r="H100" t="n">
-        <v>3632.710493046776</v>
+        <v>3632.710496780286</v>
       </c>
     </row>
     <row r="101">
@@ -3667,13 +3667,13 @@
         <v>300</v>
       </c>
       <c r="F101" t="n">
-        <v>5648.008883043433</v>
+        <v>5648.002739123809</v>
       </c>
       <c r="G101" t="n">
-        <v>10239.36976649906</v>
+        <v>10239.36319288593</v>
       </c>
       <c r="H101" t="n">
-        <v>3634.584070796459</v>
+        <v>3634.584074527999</v>
       </c>
     </row>
     <row r="102">
@@ -3699,13 +3699,13 @@
         <v>248</v>
       </c>
       <c r="F102" t="n">
-        <v>6562.042393644164</v>
+        <v>6562.042402590476</v>
       </c>
       <c r="G102" t="n">
-        <v>11268.74413101219</v>
+        <v>11268.74414471837</v>
       </c>
       <c r="H102" t="n">
-        <v>3751.648546144121</v>
+        <v>3751.648550000285</v>
       </c>
     </row>
     <row r="103">
@@ -3731,13 +3731,13 @@
         <v>452</v>
       </c>
       <c r="F103" t="n">
-        <v>6657.766340760639</v>
+        <v>6657.766348046316</v>
       </c>
       <c r="G103" t="n">
-        <v>10182.56096086576</v>
+        <v>10182.56096163383</v>
       </c>
       <c r="H103" t="n">
-        <v>2634.900126422251</v>
+        <v>2634.900119854</v>
       </c>
     </row>
     <row r="104">
@@ -3763,13 +3763,13 @@
         <v>1640</v>
       </c>
       <c r="F104" t="n">
-        <v>7750.435034468062</v>
+        <v>7750.434293142857</v>
       </c>
       <c r="G104" t="n">
-        <v>10429.97470209737</v>
+        <v>10429.97391088573</v>
       </c>
       <c r="H104" t="n">
-        <v>1805.652338811631</v>
+        <v>1805.652341093</v>
       </c>
     </row>
     <row r="105">
@@ -3795,13 +3795,13 @@
         <v>800</v>
       </c>
       <c r="F105" t="n">
-        <v>5558.843645428719</v>
+        <v>5558.846216938262</v>
       </c>
       <c r="G105" t="n">
-        <v>8037.078787404489</v>
+        <v>8037.081542824717</v>
       </c>
       <c r="H105" t="n">
-        <v>1768.749683944374</v>
+        <v>1768.749686179</v>
       </c>
     </row>
     <row r="106">
@@ -3827,13 +3827,13 @@
         <v>800</v>
       </c>
       <c r="F106" t="n">
-        <v>7186.161815476189</v>
+        <v>7186.161822616454</v>
       </c>
       <c r="G106" t="n">
-        <v>9826.595935375022</v>
+        <v>9826.595945464232</v>
       </c>
       <c r="H106" t="n">
-        <v>1807.510745891277</v>
+        <v>1807.510748175</v>
       </c>
     </row>
     <row r="107">
@@ -3859,13 +3859,13 @@
         <v>220</v>
       </c>
       <c r="F107" t="n">
-        <v>7787.785635535186</v>
+        <v>7787.785642758954</v>
       </c>
       <c r="G107" t="n">
-        <v>11046.2067460885</v>
+        <v>11046.20674752975</v>
       </c>
       <c r="H107" t="n">
-        <v>2358.616940581543</v>
+        <v>2358.616934704</v>
       </c>
     </row>
     <row r="108">
@@ -3891,13 +3891,13 @@
         <v>1200</v>
       </c>
       <c r="F108" t="n">
-        <v>7796.452234249895</v>
+        <v>7796.452241766456</v>
       </c>
       <c r="G108" t="n">
-        <v>10233.37021917589</v>
+        <v>10233.37022731065</v>
       </c>
       <c r="H108" t="n">
-        <v>1572.018710493047</v>
+        <v>1572.01871057488</v>
       </c>
     </row>
     <row r="109">
@@ -3923,13 +3923,13 @@
         <v>160</v>
       </c>
       <c r="F109" t="n">
-        <v>7774.248033607248</v>
+        <v>7774.248041197008</v>
       </c>
       <c r="G109" t="n">
-        <v>11225.45447218846</v>
+        <v>11225.45448082167</v>
       </c>
       <c r="H109" t="n">
-        <v>2482.908975979773</v>
+        <v>2482.908976454</v>
       </c>
     </row>
     <row r="110">
@@ -3955,13 +3955,13 @@
         <v>152</v>
       </c>
       <c r="F110" t="n">
-        <v>5607.847116519173</v>
+        <v>5607.847120089051</v>
       </c>
       <c r="G110" t="n">
-        <v>11235.45215320923</v>
+        <v>11235.45215712033</v>
       </c>
       <c r="H110" t="n">
-        <v>4758.399494310999</v>
+        <v>4758.399494394348</v>
       </c>
     </row>
     <row r="111">
@@ -3987,13 +3987,13 @@
         <v>160</v>
       </c>
       <c r="F111" t="n">
-        <v>6828.210551780445</v>
+        <v>6828.210625992036</v>
       </c>
       <c r="G111" t="n">
-        <v>12607.39837346562</v>
+        <v>12607.39845276725</v>
       </c>
       <c r="H111" t="n">
-        <v>4683.375474083439</v>
+        <v>4683.375473944797</v>
       </c>
     </row>
     <row r="112">
@@ -4019,13 +4019,13 @@
         <v>0</v>
       </c>
       <c r="F112" t="n">
-        <v>5824.85032079646</v>
+        <v>5824.85028690016</v>
       </c>
       <c r="G112" t="n">
-        <v>10729.61476821968</v>
+        <v>10729.6147349171</v>
       </c>
       <c r="H112" t="n">
-        <v>4197.317319848293</v>
+        <v>4197.317322637793</v>
       </c>
     </row>
     <row r="113">
@@ -4051,13 +4051,13 @@
         <v>420</v>
       </c>
       <c r="F113" t="n">
-        <v>6848.491581858407</v>
+        <v>6848.491592511294</v>
       </c>
       <c r="G113" t="n">
-        <v>13440.08723294048</v>
+        <v>13440.08724762789</v>
       </c>
       <c r="H113" t="n">
-        <v>5378.331226295829</v>
+        <v>5378.331229361962</v>
       </c>
     </row>
     <row r="114">
@@ -4083,13 +4083,13 @@
         <v>0</v>
       </c>
       <c r="F114" t="n">
-        <v>6703.89101085124</v>
+        <v>6703.891084696839</v>
       </c>
       <c r="G114" t="n">
-        <v>11598.93402025854</v>
+        <v>11598.93409404789</v>
       </c>
       <c r="H114" t="n">
-        <v>4130.278128950695</v>
+        <v>4130.278124029205</v>
       </c>
     </row>
     <row r="115">
@@ -4115,13 +4115,13 @@
         <v>0</v>
       </c>
       <c r="F115" t="n">
-        <v>5824.85032079646</v>
+        <v>5824.85028690016</v>
       </c>
       <c r="G115" t="n">
-        <v>10615.54501288392</v>
+        <v>10615.54497950527</v>
       </c>
       <c r="H115" t="n">
-        <v>4090.768647281921</v>
+        <v>4090.768650000365</v>
       </c>
     </row>
     <row r="116">
@@ -4147,13 +4147,13 @@
         <v>0</v>
       </c>
       <c r="F116" t="n">
-        <v>5824.85032079646</v>
+        <v>5824.85028690016</v>
       </c>
       <c r="G116" t="n">
-        <v>9450.593425169183</v>
+        <v>9450.593389097166</v>
       </c>
       <c r="H116" t="n">
-        <v>3002.627054361568</v>
+        <v>3002.627054564225</v>
       </c>
     </row>
     <row r="117">
@@ -4179,13 +4179,13 @@
         <v>0</v>
       </c>
       <c r="F117" t="n">
-        <v>6813.29456753055</v>
+        <v>6813.29459052541</v>
       </c>
       <c r="G117" t="n">
-        <v>11783.81988942391</v>
+        <v>11783.8199122275</v>
       </c>
       <c r="H117" t="n">
-        <v>4193.570164348926</v>
+        <v>4193.570162654119</v>
       </c>
     </row>
     <row r="118">
@@ -4211,13 +4211,13 @@
         <v>0</v>
       </c>
       <c r="F118" t="n">
-        <v>5607.847116519173</v>
+        <v>5607.847120089051</v>
       </c>
       <c r="G118" t="n">
-        <v>10558.70837055353</v>
+        <v>10558.70837680184</v>
       </c>
       <c r="H118" t="n">
-        <v>4254.682680151706</v>
+        <v>4254.682682418159</v>
       </c>
     </row>
     <row r="119">
@@ -4243,13 +4243,13 @@
         <v>252</v>
       </c>
       <c r="F119" t="n">
-        <v>5794.749008678795</v>
+        <v>5794.758247434134</v>
       </c>
       <c r="G119" t="n">
-        <v>10590.8627400884</v>
+        <v>10590.87263322209</v>
       </c>
       <c r="H119" t="n">
-        <v>3950.308470290772</v>
+        <v>3950.308472374594</v>
       </c>
     </row>
     <row r="120">
@@ -4275,13 +4275,13 @@
         <v>0</v>
       </c>
       <c r="F120" t="n">
-        <v>5137.781861614938</v>
+        <v>5137.783457680476</v>
       </c>
       <c r="G120" t="n">
-        <v>10002.52138292415</v>
+        <v>10002.52308960966</v>
       </c>
       <c r="H120" t="n">
-        <v>4205.232616940581</v>
+        <v>4205.232615031847</v>
       </c>
     </row>
     <row r="121">
@@ -4307,13 +4307,13 @@
         <v>416</v>
       </c>
       <c r="F121" t="n">
-        <v>5036.719151466174</v>
+        <v>5036.722330129753</v>
       </c>
       <c r="G121" t="n">
-        <v>10348.33680502668</v>
+        <v>10348.34020951648</v>
       </c>
       <c r="H121" t="n">
-        <v>4369.90391908976</v>
+        <v>4369.903920444129</v>
       </c>
     </row>
     <row r="122">
@@ -4339,42 +4339,36 @@
         <v>0</v>
       </c>
       <c r="F122" t="n">
-        <v>5607.847116519173</v>
+        <v>5607.847120089051</v>
       </c>
       <c r="G122" t="n">
-        <v>11135.87859439528</v>
+        <v>11135.87859830706</v>
       </c>
       <c r="H122" t="n">
-        <v>4793.797724399495</v>
+        <v>4793.797724483483</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
         <v>122</v>
       </c>
-      <c r="B123" t="inlineStr">
-        <is>
-          <t>ABI</t>
-        </is>
-      </c>
-      <c r="C123" t="inlineStr">
-        <is>
-          <t>Canada</t>
-        </is>
-      </c>
-      <c r="D123" t="inlineStr">
-        <is>
-          <t>Becancour</t>
-        </is>
+      <c r="B123" t="n">
+        <v>0</v>
+      </c>
+      <c r="C123" t="n">
+        <v>0</v>
+      </c>
+      <c r="D123" t="n">
+        <v>0</v>
       </c>
       <c r="E123" t="n">
         <v>0</v>
       </c>
       <c r="F123" t="n">
-        <v>72.18000000000001</v>
+        <v>0</v>
       </c>
       <c r="G123" t="n">
-        <v>14.57186823529412</v>
+        <v>0</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -4384,29 +4378,23 @@
       <c r="A124" t="n">
         <v>123</v>
       </c>
-      <c r="B124" t="inlineStr">
-        <is>
-          <t>Alba</t>
-        </is>
-      </c>
-      <c r="C124" t="inlineStr">
-        <is>
-          <t>Bahrain</t>
-        </is>
-      </c>
-      <c r="D124" t="inlineStr">
-        <is>
-          <t>Ras Zurrayed</t>
-        </is>
+      <c r="B124" t="n">
+        <v>0</v>
+      </c>
+      <c r="C124" t="n">
+        <v>0</v>
+      </c>
+      <c r="D124" t="n">
+        <v>0</v>
       </c>
       <c r="E124" t="n">
         <v>0</v>
       </c>
       <c r="F124" t="n">
-        <v>49.54799999999999</v>
+        <v>0</v>
       </c>
       <c r="G124" t="n">
-        <v>2.856879388235294</v>
+        <v>0</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -4416,29 +4404,23 @@
       <c r="A125" t="n">
         <v>124</v>
       </c>
-      <c r="B125" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Albras </t>
-        </is>
-      </c>
-      <c r="C125" t="inlineStr">
-        <is>
-          <t>Brazil</t>
-        </is>
-      </c>
-      <c r="D125" t="inlineStr">
-        <is>
-          <t>Barcarena</t>
-        </is>
+      <c r="B125" t="n">
+        <v>0</v>
+      </c>
+      <c r="C125" t="n">
+        <v>0</v>
+      </c>
+      <c r="D125" t="n">
+        <v>0</v>
       </c>
       <c r="E125" t="n">
         <v>0</v>
       </c>
       <c r="F125" t="n">
-        <v>135.828</v>
+        <v>0</v>
       </c>
       <c r="G125" t="n">
-        <v>82.51311303529413</v>
+        <v>0</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -4448,29 +4430,23 @@
       <c r="A126" t="n">
         <v>125</v>
       </c>
-      <c r="B126" t="inlineStr">
-        <is>
-          <t>Alcasa</t>
-        </is>
-      </c>
-      <c r="C126" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Venezuela </t>
-        </is>
-      </c>
-      <c r="D126" t="inlineStr">
-        <is>
-          <t>Matanzas</t>
-        </is>
+      <c r="B126" t="n">
+        <v>0</v>
+      </c>
+      <c r="C126" t="n">
+        <v>0</v>
+      </c>
+      <c r="D126" t="n">
+        <v>0</v>
       </c>
       <c r="E126" t="n">
         <v>0</v>
       </c>
       <c r="F126" t="n">
-        <v>1687800.553333333</v>
+        <v>0</v>
       </c>
       <c r="G126" t="n">
-        <v>18152858124.91601</v>
+        <v>0</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -4480,29 +4456,23 @@
       <c r="A127" t="n">
         <v>126</v>
       </c>
-      <c r="B127" t="inlineStr">
-        <is>
-          <t>Alcoa</t>
-        </is>
-      </c>
-      <c r="C127" t="inlineStr">
-        <is>
-          <t>Spain</t>
-        </is>
-      </c>
-      <c r="D127" t="inlineStr">
-        <is>
-          <t>San Ciprian</t>
-        </is>
+      <c r="B127" t="n">
+        <v>0</v>
+      </c>
+      <c r="C127" t="n">
+        <v>0</v>
+      </c>
+      <c r="D127" t="n">
+        <v>0</v>
       </c>
       <c r="E127" t="n">
         <v>0</v>
       </c>
       <c r="F127" t="n">
-        <v>62.09040000000001</v>
+        <v>0</v>
       </c>
       <c r="G127" t="n">
-        <v>8.542762469647061</v>
+        <v>0</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -4512,29 +4482,23 @@
       <c r="A128" t="n">
         <v>127</v>
       </c>
-      <c r="B128" t="inlineStr">
-        <is>
-          <t>Aldel - Aluminium Delfzijl</t>
-        </is>
-      </c>
-      <c r="C128" t="inlineStr">
-        <is>
-          <t>Netherlands</t>
-        </is>
-      </c>
-      <c r="D128" t="inlineStr">
-        <is>
-          <t>Delfzijl</t>
-        </is>
+      <c r="B128" t="n">
+        <v>0</v>
+      </c>
+      <c r="C128" t="n">
+        <v>0</v>
+      </c>
+      <c r="D128" t="n">
+        <v>0</v>
       </c>
       <c r="E128" t="n">
         <v>0</v>
       </c>
       <c r="F128" t="n">
-        <v>62.09040000000001</v>
+        <v>0</v>
       </c>
       <c r="G128" t="n">
-        <v>8.542762469647061</v>
+        <v>0</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -4544,29 +4508,23 @@
       <c r="A129" t="n">
         <v>128</v>
       </c>
-      <c r="B129" t="inlineStr">
-        <is>
-          <t>Alma</t>
-        </is>
-      </c>
-      <c r="C129" t="inlineStr">
-        <is>
-          <t>Canada</t>
-        </is>
-      </c>
-      <c r="D129" t="inlineStr">
-        <is>
-          <t>Alma</t>
-        </is>
+      <c r="B129" t="n">
+        <v>0</v>
+      </c>
+      <c r="C129" t="n">
+        <v>0</v>
+      </c>
+      <c r="D129" t="n">
+        <v>0</v>
       </c>
       <c r="E129" t="n">
         <v>0</v>
       </c>
       <c r="F129" t="n">
-        <v>72.18000000000001</v>
+        <v>0</v>
       </c>
       <c r="G129" t="n">
-        <v>14.57186823529412</v>
+        <v>0</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -4576,29 +4534,23 @@
       <c r="A130" t="n">
         <v>129</v>
       </c>
-      <c r="B130" t="inlineStr">
-        <is>
-          <t>Almahdi Aluminium</t>
-        </is>
-      </c>
-      <c r="C130" t="inlineStr">
-        <is>
-          <t>Iran</t>
-        </is>
-      </c>
-      <c r="D130" t="inlineStr">
-        <is>
-          <t>Bandar Abbas</t>
-        </is>
+      <c r="B130" t="n">
+        <v>0</v>
+      </c>
+      <c r="C130" t="n">
+        <v>0</v>
+      </c>
+      <c r="D130" t="n">
+        <v>0</v>
       </c>
       <c r="E130" t="n">
         <v>0</v>
       </c>
       <c r="F130" t="n">
-        <v>1008040.5</v>
+        <v>0</v>
       </c>
       <c r="G130" t="n">
-        <v>6475177800</v>
+        <v>0</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -4608,29 +4560,23 @@
       <c r="A131" t="n">
         <v>130</v>
       </c>
-      <c r="B131" t="inlineStr">
-        <is>
-          <t>Alouette - Aluminerie</t>
-        </is>
-      </c>
-      <c r="C131" t="inlineStr">
-        <is>
-          <t>Canada</t>
-        </is>
-      </c>
-      <c r="D131" t="inlineStr">
-        <is>
-          <t>Sept-Iles</t>
-        </is>
+      <c r="B131" t="n">
+        <v>0</v>
+      </c>
+      <c r="C131" t="n">
+        <v>0</v>
+      </c>
+      <c r="D131" t="n">
+        <v>0</v>
       </c>
       <c r="E131" t="n">
         <v>0</v>
       </c>
       <c r="F131" t="n">
-        <v>72.18000000000001</v>
+        <v>0</v>
       </c>
       <c r="G131" t="n">
-        <v>14.57186823529412</v>
+        <v>0</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -4640,29 +4586,23 @@
       <c r="A132" t="n">
         <v>131</v>
       </c>
-      <c r="B132" t="inlineStr">
-        <is>
-          <t>Alro</t>
-        </is>
-      </c>
-      <c r="C132" t="inlineStr">
-        <is>
-          <t>Romania</t>
-        </is>
-      </c>
-      <c r="D132" t="inlineStr">
-        <is>
-          <t>Slatina</t>
-        </is>
+      <c r="B132" t="n">
+        <v>0</v>
+      </c>
+      <c r="C132" t="n">
+        <v>0</v>
+      </c>
+      <c r="D132" t="n">
+        <v>0</v>
       </c>
       <c r="E132" t="n">
         <v>0</v>
       </c>
       <c r="F132" t="n">
-        <v>142.6296</v>
+        <v>0</v>
       </c>
       <c r="G132" t="n">
-        <v>92.82703526964706</v>
+        <v>0</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -4672,29 +4612,23 @@
       <c r="A133" t="n">
         <v>132</v>
       </c>
-      <c r="B133" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Aluar </t>
-        </is>
-      </c>
-      <c r="C133" t="inlineStr">
-        <is>
-          <t>Argentina</t>
-        </is>
-      </c>
-      <c r="D133" t="inlineStr">
-        <is>
-          <t>Puerto Madryn</t>
-        </is>
+      <c r="B133" t="n">
+        <v>0</v>
+      </c>
+      <c r="C133" t="n">
+        <v>0</v>
+      </c>
+      <c r="D133" t="n">
+        <v>0</v>
       </c>
       <c r="E133" t="n">
         <v>0</v>
       </c>
       <c r="F133" t="n">
-        <v>1248.804</v>
+        <v>0</v>
       </c>
       <c r="G133" t="n">
-        <v>9615.76141637647</v>
+        <v>0</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -4704,29 +4638,23 @@
       <c r="A134" t="n">
         <v>133</v>
       </c>
-      <c r="B134" t="inlineStr">
-        <is>
-          <t>Alucam</t>
-        </is>
-      </c>
-      <c r="C134" t="inlineStr">
-        <is>
-          <t>Cameroon</t>
-        </is>
-      </c>
-      <c r="D134" t="inlineStr">
-        <is>
-          <t>Edea</t>
-        </is>
+      <c r="B134" t="n">
+        <v>0</v>
+      </c>
+      <c r="C134" t="n">
+        <v>0</v>
+      </c>
+      <c r="D134" t="n">
+        <v>0</v>
       </c>
       <c r="E134" t="n">
         <v>0</v>
       </c>
       <c r="F134" t="n">
-        <v>64.5</v>
+        <v>0</v>
       </c>
       <c r="G134" t="n">
-        <v>9.864705882352942</v>
+        <v>0</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -4736,29 +4664,23 @@
       <c r="A135" t="n">
         <v>134</v>
       </c>
-      <c r="B135" t="inlineStr">
-        <is>
-          <t>Aluminerie Laualco</t>
-        </is>
-      </c>
-      <c r="C135" t="inlineStr">
-        <is>
-          <t>Canada</t>
-        </is>
-      </c>
-      <c r="D135" t="inlineStr">
-        <is>
-          <t>Deschambault</t>
-        </is>
+      <c r="B135" t="n">
+        <v>0</v>
+      </c>
+      <c r="C135" t="n">
+        <v>0</v>
+      </c>
+      <c r="D135" t="n">
+        <v>0</v>
       </c>
       <c r="E135" t="n">
         <v>0</v>
       </c>
       <c r="F135" t="n">
-        <v>72.18000000000001</v>
+        <v>0</v>
       </c>
       <c r="G135" t="n">
-        <v>14.57186823529412</v>
+        <v>0</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -4768,29 +4690,23 @@
       <c r="A136" t="n">
         <v>135</v>
       </c>
-      <c r="B136" t="inlineStr">
-        <is>
-          <t>Aluminij Mostar</t>
-        </is>
-      </c>
-      <c r="C136" t="inlineStr">
-        <is>
-          <t>Bosnia</t>
-        </is>
-      </c>
-      <c r="D136" t="inlineStr">
-        <is>
-          <t>Mostar</t>
-        </is>
+      <c r="B136" t="n">
+        <v>0</v>
+      </c>
+      <c r="C136" t="n">
+        <v>0</v>
+      </c>
+      <c r="D136" t="n">
+        <v>0</v>
       </c>
       <c r="E136" t="n">
         <v>0</v>
       </c>
       <c r="F136" t="n">
-        <v>82.76734177215189</v>
+        <v>0</v>
       </c>
       <c r="G136" t="n">
-        <v>22.29344205359246</v>
+        <v>0</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -4800,29 +4716,23 @@
       <c r="A137" t="n">
         <v>136</v>
       </c>
-      <c r="B137" t="inlineStr">
-        <is>
-          <t>Aluminium de Greece</t>
-        </is>
-      </c>
-      <c r="C137" t="inlineStr">
-        <is>
-          <t>Greece</t>
-        </is>
-      </c>
-      <c r="D137" t="inlineStr">
-        <is>
-          <t>Distomon</t>
-        </is>
+      <c r="B137" t="n">
+        <v>0</v>
+      </c>
+      <c r="C137" t="n">
+        <v>0</v>
+      </c>
+      <c r="D137" t="n">
+        <v>0</v>
       </c>
       <c r="E137" t="n">
         <v>0</v>
       </c>
       <c r="F137" t="n">
-        <v>62.09040000000001</v>
+        <v>0</v>
       </c>
       <c r="G137" t="n">
-        <v>8.542762469647061</v>
+        <v>0</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -4832,29 +4742,23 @@
       <c r="A138" t="n">
         <v>137</v>
       </c>
-      <c r="B138" t="inlineStr">
-        <is>
-          <t>Alusaf</t>
-        </is>
-      </c>
-      <c r="C138" t="inlineStr">
-        <is>
-          <t>South Africa</t>
-        </is>
-      </c>
-      <c r="D138" t="inlineStr">
-        <is>
-          <t>Richards Bay - Hillside</t>
-        </is>
+      <c r="B138" t="n">
+        <v>0</v>
+      </c>
+      <c r="C138" t="n">
+        <v>0</v>
+      </c>
+      <c r="D138" t="n">
+        <v>0</v>
       </c>
       <c r="E138" t="n">
         <v>0</v>
       </c>
       <c r="F138" t="n">
-        <v>393.204</v>
+        <v>0</v>
       </c>
       <c r="G138" t="n">
-        <v>883.7745622588236</v>
+        <v>0</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -4864,29 +4768,23 @@
       <c r="A139" t="n">
         <v>138</v>
       </c>
-      <c r="B139" t="inlineStr">
-        <is>
-          <t>Aviles</t>
-        </is>
-      </c>
-      <c r="C139" t="inlineStr">
-        <is>
-          <t>Spain</t>
-        </is>
-      </c>
-      <c r="D139" t="inlineStr">
-        <is>
-          <t>Aviles</t>
-        </is>
+      <c r="B139" t="n">
+        <v>0</v>
+      </c>
+      <c r="C139" t="n">
+        <v>0</v>
+      </c>
+      <c r="D139" t="n">
+        <v>0</v>
       </c>
       <c r="E139" t="n">
         <v>0</v>
       </c>
       <c r="F139" t="n">
-        <v>62.09040000000001</v>
+        <v>0</v>
       </c>
       <c r="G139" t="n">
-        <v>8.542762469647061</v>
+        <v>0</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -4896,29 +4794,23 @@
       <c r="A140" t="n">
         <v>139</v>
       </c>
-      <c r="B140" t="inlineStr">
-        <is>
-          <t>AzerAl</t>
-        </is>
-      </c>
-      <c r="C140" t="inlineStr">
-        <is>
-          <t>Azerbaijan</t>
-        </is>
-      </c>
-      <c r="D140" t="inlineStr">
-        <is>
-          <t>Sumgait</t>
-        </is>
+      <c r="B140" t="n">
+        <v>0</v>
+      </c>
+      <c r="C140" t="n">
+        <v>0</v>
+      </c>
+      <c r="D140" t="n">
+        <v>0</v>
       </c>
       <c r="E140" t="n">
         <v>0</v>
       </c>
       <c r="F140" t="n">
-        <v>1592.532</v>
+        <v>0</v>
       </c>
       <c r="G140" t="n">
-        <v>15750.7784928</v>
+        <v>0</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -4928,29 +4820,23 @@
       <c r="A141" t="n">
         <v>140</v>
       </c>
-      <c r="B141" t="inlineStr">
-        <is>
-          <t>Baie Comeau</t>
-        </is>
-      </c>
-      <c r="C141" t="inlineStr">
-        <is>
-          <t>Canada</t>
-        </is>
-      </c>
-      <c r="D141" t="inlineStr">
-        <is>
-          <t>Baie Comeau</t>
-        </is>
+      <c r="B141" t="n">
+        <v>0</v>
+      </c>
+      <c r="C141" t="n">
+        <v>0</v>
+      </c>
+      <c r="D141" t="n">
+        <v>0</v>
       </c>
       <c r="E141" t="n">
         <v>0</v>
       </c>
       <c r="F141" t="n">
-        <v>72.18000000000001</v>
+        <v>0</v>
       </c>
       <c r="G141" t="n">
-        <v>14.57186823529412</v>
+        <v>0</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -4960,29 +4846,23 @@
       <c r="A142" t="n">
         <v>141</v>
       </c>
-      <c r="B142" t="inlineStr">
-        <is>
-          <t>Bell Bay</t>
-        </is>
-      </c>
-      <c r="C142" t="inlineStr">
-        <is>
-          <t>Australia</t>
-        </is>
-      </c>
-      <c r="D142" t="inlineStr">
-        <is>
-          <t>Bell Bay</t>
-        </is>
+      <c r="B142" t="n">
+        <v>0</v>
+      </c>
+      <c r="C142" t="n">
+        <v>0</v>
+      </c>
+      <c r="D142" t="n">
+        <v>0</v>
       </c>
       <c r="E142" t="n">
         <v>0</v>
       </c>
       <c r="F142" t="n">
-        <v>75.51600000000001</v>
+        <v>0</v>
       </c>
       <c r="G142" t="n">
-        <v>16.85072908235295</v>
+        <v>0</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -4992,29 +4872,23 @@
       <c r="A143" t="n">
         <v>142</v>
       </c>
-      <c r="B143" t="inlineStr">
-        <is>
-          <t>BEMO</t>
-        </is>
-      </c>
-      <c r="C143" t="inlineStr">
-        <is>
-          <t>Russia</t>
-        </is>
-      </c>
-      <c r="D143" t="inlineStr">
-        <is>
-          <t>Krasnoyarsk</t>
-        </is>
+      <c r="B143" t="n">
+        <v>0</v>
+      </c>
+      <c r="C143" t="n">
+        <v>0</v>
+      </c>
+      <c r="D143" t="n">
+        <v>0</v>
       </c>
       <c r="E143" t="n">
         <v>0</v>
       </c>
       <c r="F143" t="n">
-        <v>1592.532</v>
+        <v>0</v>
       </c>
       <c r="G143" t="n">
-        <v>15750.7784928</v>
+        <v>0</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -5024,29 +4898,23 @@
       <c r="A144" t="n">
         <v>143</v>
       </c>
-      <c r="B144" t="inlineStr">
-        <is>
-          <t>Boyne Smelters</t>
-        </is>
-      </c>
-      <c r="C144" t="inlineStr">
-        <is>
-          <t>Australia</t>
-        </is>
-      </c>
-      <c r="D144" t="inlineStr">
-        <is>
-          <t>Gladstone</t>
-        </is>
+      <c r="B144" t="n">
+        <v>0</v>
+      </c>
+      <c r="C144" t="n">
+        <v>0</v>
+      </c>
+      <c r="D144" t="n">
+        <v>0</v>
       </c>
       <c r="E144" t="n">
         <v>0</v>
       </c>
       <c r="F144" t="n">
-        <v>75.51600000000001</v>
+        <v>0</v>
       </c>
       <c r="G144" t="n">
-        <v>16.85072908235295</v>
+        <v>0</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -5056,29 +4924,23 @@
       <c r="A145" t="n">
         <v>144</v>
       </c>
-      <c r="B145" t="inlineStr">
-        <is>
-          <t>BrAZ - Bratsk Aluminium</t>
-        </is>
-      </c>
-      <c r="C145" t="inlineStr">
-        <is>
-          <t>Russia</t>
-        </is>
-      </c>
-      <c r="D145" t="inlineStr">
-        <is>
-          <t>Bratsk</t>
-        </is>
+      <c r="B145" t="n">
+        <v>0</v>
+      </c>
+      <c r="C145" t="n">
+        <v>0</v>
+      </c>
+      <c r="D145" t="n">
+        <v>0</v>
       </c>
       <c r="E145" t="n">
         <v>0</v>
       </c>
       <c r="F145" t="n">
-        <v>1592.532</v>
+        <v>0</v>
       </c>
       <c r="G145" t="n">
-        <v>15750.7784928</v>
+        <v>0</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -5088,29 +4950,23 @@
       <c r="A146" t="n">
         <v>145</v>
       </c>
-      <c r="B146" t="inlineStr">
-        <is>
-          <t xml:space="preserve">CBA </t>
-        </is>
-      </c>
-      <c r="C146" t="inlineStr">
-        <is>
-          <t>Brazil</t>
-        </is>
-      </c>
-      <c r="D146" t="inlineStr">
-        <is>
-          <t>Sorocaba</t>
-        </is>
+      <c r="B146" t="n">
+        <v>0</v>
+      </c>
+      <c r="C146" t="n">
+        <v>0</v>
+      </c>
+      <c r="D146" t="n">
+        <v>0</v>
       </c>
       <c r="E146" t="n">
         <v>0</v>
       </c>
       <c r="F146" t="n">
-        <v>135.828</v>
+        <v>0</v>
       </c>
       <c r="G146" t="n">
-        <v>82.51311303529413</v>
+        <v>0</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -5120,29 +4976,23 @@
       <c r="A147" t="n">
         <v>146</v>
       </c>
-      <c r="B147" t="inlineStr">
-        <is>
-          <t>Century Aluminum</t>
-        </is>
-      </c>
-      <c r="C147" t="inlineStr">
-        <is>
-          <t>USA</t>
-        </is>
-      </c>
-      <c r="D147" t="inlineStr">
-        <is>
-          <t>Hawesville</t>
-        </is>
+      <c r="B147" t="n">
+        <v>0</v>
+      </c>
+      <c r="C147" t="n">
+        <v>0</v>
+      </c>
+      <c r="D147" t="n">
+        <v>0</v>
       </c>
       <c r="E147" t="n">
         <v>0</v>
       </c>
       <c r="F147" t="n">
-        <v>64.5</v>
+        <v>0</v>
       </c>
       <c r="G147" t="n">
-        <v>9.864705882352942</v>
+        <v>0</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -5152,29 +5002,23 @@
       <c r="A148" t="n">
         <v>147</v>
       </c>
-      <c r="B148" t="inlineStr">
-        <is>
-          <t>Century Aluminum</t>
-        </is>
-      </c>
-      <c r="C148" t="inlineStr">
-        <is>
-          <t>USA</t>
-        </is>
-      </c>
-      <c r="D148" t="inlineStr">
-        <is>
-          <t>Mount Holly</t>
-        </is>
+      <c r="B148" t="n">
+        <v>0</v>
+      </c>
+      <c r="C148" t="n">
+        <v>0</v>
+      </c>
+      <c r="D148" t="n">
+        <v>0</v>
       </c>
       <c r="E148" t="n">
         <v>0</v>
       </c>
       <c r="F148" t="n">
-        <v>64.5</v>
+        <v>0</v>
       </c>
       <c r="G148" t="n">
-        <v>9.864705882352942</v>
+        <v>0</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -5184,29 +5028,23 @@
       <c r="A149" t="n">
         <v>148</v>
       </c>
-      <c r="B149" t="inlineStr">
-        <is>
-          <t>Century Aluminum</t>
-        </is>
-      </c>
-      <c r="C149" t="inlineStr">
-        <is>
-          <t>USA</t>
-        </is>
-      </c>
-      <c r="D149" t="inlineStr">
-        <is>
-          <t>Sebree</t>
-        </is>
+      <c r="B149" t="n">
+        <v>0</v>
+      </c>
+      <c r="C149" t="n">
+        <v>0</v>
+      </c>
+      <c r="D149" t="n">
+        <v>0</v>
       </c>
       <c r="E149" t="n">
         <v>0</v>
       </c>
       <c r="F149" t="n">
-        <v>64.5</v>
+        <v>0</v>
       </c>
       <c r="G149" t="n">
-        <v>9.864705882352942</v>
+        <v>0</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -5216,29 +5054,23 @@
       <c r="A150" t="n">
         <v>149</v>
       </c>
-      <c r="B150" t="inlineStr">
-        <is>
-          <t>Det. Al</t>
-        </is>
-      </c>
-      <c r="C150" t="inlineStr">
-        <is>
-          <t>Azerbaijan</t>
-        </is>
-      </c>
-      <c r="D150" t="inlineStr">
-        <is>
-          <t>Ganja</t>
-        </is>
+      <c r="B150" t="n">
+        <v>0</v>
+      </c>
+      <c r="C150" t="n">
+        <v>0</v>
+      </c>
+      <c r="D150" t="n">
+        <v>0</v>
       </c>
       <c r="E150" t="n">
         <v>0</v>
       </c>
       <c r="F150" t="n">
-        <v>1592.532</v>
+        <v>0</v>
       </c>
       <c r="G150" t="n">
-        <v>15750.7784928</v>
+        <v>0</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -5248,29 +5080,23 @@
       <c r="A151" t="n">
         <v>150</v>
       </c>
-      <c r="B151" t="inlineStr">
-        <is>
-          <t>Dubal</t>
-        </is>
-      </c>
-      <c r="C151" t="inlineStr">
-        <is>
-          <t>UAE</t>
-        </is>
-      </c>
-      <c r="D151" t="inlineStr">
-        <is>
-          <t>Jebel Ali, Dubai</t>
-        </is>
+      <c r="B151" t="n">
+        <v>0</v>
+      </c>
+      <c r="C151" t="n">
+        <v>0</v>
+      </c>
+      <c r="D151" t="n">
+        <v>0</v>
       </c>
       <c r="E151" t="n">
         <v>0</v>
       </c>
       <c r="F151" t="n">
-        <v>128.6544</v>
+        <v>0</v>
       </c>
       <c r="G151" t="n">
-        <v>72.27395525082353</v>
+        <v>0</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -5280,29 +5106,23 @@
       <c r="A152" t="n">
         <v>151</v>
       </c>
-      <c r="B152" t="inlineStr">
-        <is>
-          <t>Egyptian Aluminium</t>
-        </is>
-      </c>
-      <c r="C152" t="inlineStr">
-        <is>
-          <t>Egypt</t>
-        </is>
-      </c>
-      <c r="D152" t="inlineStr">
-        <is>
-          <t>Nag Hammadi</t>
-        </is>
+      <c r="B152" t="n">
+        <v>0</v>
+      </c>
+      <c r="C152" t="n">
+        <v>0</v>
+      </c>
+      <c r="D152" t="n">
+        <v>0</v>
       </c>
       <c r="E152" t="n">
         <v>0</v>
       </c>
       <c r="F152" t="n">
-        <v>437.1888</v>
+        <v>0</v>
       </c>
       <c r="G152" t="n">
-        <v>1105.177796956236</v>
+        <v>0</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -5312,29 +5132,23 @@
       <c r="A153" t="n">
         <v>152</v>
       </c>
-      <c r="B153" t="inlineStr">
-        <is>
-          <t>Elkem</t>
-        </is>
-      </c>
-      <c r="C153" t="inlineStr">
-        <is>
-          <t>Norway</t>
-        </is>
-      </c>
-      <c r="D153" t="inlineStr">
-        <is>
-          <t>Lista</t>
-        </is>
+      <c r="B153" t="n">
+        <v>0</v>
+      </c>
+      <c r="C153" t="n">
+        <v>0</v>
+      </c>
+      <c r="D153" t="n">
+        <v>0</v>
       </c>
       <c r="E153" t="n">
         <v>0</v>
       </c>
       <c r="F153" t="n">
-        <v>253.152</v>
+        <v>0</v>
       </c>
       <c r="G153" t="n">
-        <v>343.0552099764706</v>
+        <v>0</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -5344,29 +5158,23 @@
       <c r="A154" t="n">
         <v>153</v>
       </c>
-      <c r="B154" t="inlineStr">
-        <is>
-          <t>Elkem</t>
-        </is>
-      </c>
-      <c r="C154" t="inlineStr">
-        <is>
-          <t>Norway</t>
-        </is>
-      </c>
-      <c r="D154" t="inlineStr">
-        <is>
-          <t>Mosjoen</t>
-        </is>
+      <c r="B154" t="n">
+        <v>0</v>
+      </c>
+      <c r="C154" t="n">
+        <v>0</v>
+      </c>
+      <c r="D154" t="n">
+        <v>0</v>
       </c>
       <c r="E154" t="n">
         <v>0</v>
       </c>
       <c r="F154" t="n">
-        <v>253.152</v>
+        <v>0</v>
       </c>
       <c r="G154" t="n">
-        <v>343.0552099764706</v>
+        <v>0</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -5376,29 +5184,23 @@
       <c r="A155" t="n">
         <v>154</v>
       </c>
-      <c r="B155" t="inlineStr">
-        <is>
-          <t>Emal</t>
-        </is>
-      </c>
-      <c r="C155" t="inlineStr">
-        <is>
-          <t>UAE</t>
-        </is>
-      </c>
-      <c r="D155" t="inlineStr">
-        <is>
-          <t>Abu Dhabi</t>
-        </is>
+      <c r="B155" t="n">
+        <v>0</v>
+      </c>
+      <c r="C155" t="n">
+        <v>0</v>
+      </c>
+      <c r="D155" t="n">
+        <v>0</v>
       </c>
       <c r="E155" t="n">
         <v>0</v>
       </c>
       <c r="F155" t="n">
-        <v>128.6544</v>
+        <v>0</v>
       </c>
       <c r="G155" t="n">
-        <v>72.27395525082353</v>
+        <v>0</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -5408,29 +5210,23 @@
       <c r="A156" t="n">
         <v>155</v>
       </c>
-      <c r="B156" t="inlineStr">
-        <is>
-          <t>Eti Aluminium</t>
-        </is>
-      </c>
-      <c r="C156" t="inlineStr">
-        <is>
-          <t>Turkey</t>
-        </is>
-      </c>
-      <c r="D156" t="inlineStr">
-        <is>
-          <t>Seydisehir</t>
-        </is>
+      <c r="B156" t="n">
+        <v>0</v>
+      </c>
+      <c r="C156" t="n">
+        <v>0</v>
+      </c>
+      <c r="D156" t="n">
+        <v>0</v>
       </c>
       <c r="E156" t="n">
         <v>0</v>
       </c>
       <c r="F156" t="n">
-        <v>176.7</v>
+        <v>0</v>
       </c>
       <c r="G156" t="n">
-        <v>153.3652058823529</v>
+        <v>0</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -5440,29 +5236,23 @@
       <c r="A157" t="n">
         <v>156</v>
       </c>
-      <c r="B157" t="inlineStr">
-        <is>
-          <t>Grande Baie</t>
-        </is>
-      </c>
-      <c r="C157" t="inlineStr">
-        <is>
-          <t>Canada</t>
-        </is>
-      </c>
-      <c r="D157" t="inlineStr">
-        <is>
-          <t>Grande Baie</t>
-        </is>
+      <c r="B157" t="n">
+        <v>0</v>
+      </c>
+      <c r="C157" t="n">
+        <v>0</v>
+      </c>
+      <c r="D157" t="n">
+        <v>0</v>
       </c>
       <c r="E157" t="n">
         <v>0</v>
       </c>
       <c r="F157" t="n">
-        <v>72.18000000000001</v>
+        <v>0</v>
       </c>
       <c r="G157" t="n">
-        <v>14.57186823529412</v>
+        <v>0</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -5472,29 +5262,23 @@
       <c r="A158" t="n">
         <v>157</v>
       </c>
-      <c r="B158" t="inlineStr">
-        <is>
-          <t>Hindalco</t>
-        </is>
-      </c>
-      <c r="C158" t="inlineStr">
-        <is>
-          <t>India</t>
-        </is>
-      </c>
-      <c r="D158" t="inlineStr">
-        <is>
-          <t>Aditya</t>
-        </is>
+      <c r="B158" t="n">
+        <v>0</v>
+      </c>
+      <c r="C158" t="n">
+        <v>0</v>
+      </c>
+      <c r="D158" t="n">
+        <v>0</v>
       </c>
       <c r="E158" t="n">
         <v>0</v>
       </c>
       <c r="F158" t="n">
-        <v>1729.98</v>
+        <v>0</v>
       </c>
       <c r="G158" t="n">
-        <v>18625.47349764706</v>
+        <v>0</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -5504,29 +5288,23 @@
       <c r="A159" t="n">
         <v>158</v>
       </c>
-      <c r="B159" t="inlineStr">
-        <is>
-          <t>Hindalco</t>
-        </is>
-      </c>
-      <c r="C159" t="inlineStr">
-        <is>
-          <t>India</t>
-        </is>
-      </c>
-      <c r="D159" t="inlineStr">
-        <is>
-          <t>Mahan</t>
-        </is>
+      <c r="B159" t="n">
+        <v>0</v>
+      </c>
+      <c r="C159" t="n">
+        <v>0</v>
+      </c>
+      <c r="D159" t="n">
+        <v>0</v>
       </c>
       <c r="E159" t="n">
         <v>0</v>
       </c>
       <c r="F159" t="n">
-        <v>1729.98</v>
+        <v>0</v>
       </c>
       <c r="G159" t="n">
-        <v>18625.47349764706</v>
+        <v>0</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -5536,29 +5314,23 @@
       <c r="A160" t="n">
         <v>159</v>
       </c>
-      <c r="B160" t="inlineStr">
-        <is>
-          <t>Hindalco</t>
-        </is>
-      </c>
-      <c r="C160" t="inlineStr">
-        <is>
-          <t>India</t>
-        </is>
-      </c>
-      <c r="D160" t="inlineStr">
-        <is>
-          <t>Renukoot</t>
-        </is>
+      <c r="B160" t="n">
+        <v>0</v>
+      </c>
+      <c r="C160" t="n">
+        <v>0</v>
+      </c>
+      <c r="D160" t="n">
+        <v>0</v>
       </c>
       <c r="E160" t="n">
         <v>0</v>
       </c>
       <c r="F160" t="n">
-        <v>1729.98</v>
+        <v>0</v>
       </c>
       <c r="G160" t="n">
-        <v>18625.47349764706</v>
+        <v>0</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -5568,29 +5340,23 @@
       <c r="A161" t="n">
         <v>160</v>
       </c>
-      <c r="B161" t="inlineStr">
-        <is>
-          <t>Hydro Aluminium</t>
-        </is>
-      </c>
-      <c r="C161" t="inlineStr">
-        <is>
-          <t>Norway</t>
-        </is>
-      </c>
-      <c r="D161" t="inlineStr">
-        <is>
-          <t>Ardal</t>
-        </is>
+      <c r="B161" t="n">
+        <v>0</v>
+      </c>
+      <c r="C161" t="n">
+        <v>0</v>
+      </c>
+      <c r="D161" t="n">
+        <v>0</v>
       </c>
       <c r="E161" t="n">
         <v>0</v>
       </c>
       <c r="F161" t="n">
-        <v>253.152</v>
+        <v>0</v>
       </c>
       <c r="G161" t="n">
-        <v>343.0552099764706</v>
+        <v>0</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -5600,29 +5366,23 @@
       <c r="A162" t="n">
         <v>161</v>
       </c>
-      <c r="B162" t="inlineStr">
-        <is>
-          <t>Hydro Aluminium</t>
-        </is>
-      </c>
-      <c r="C162" t="inlineStr">
-        <is>
-          <t>Norway</t>
-        </is>
-      </c>
-      <c r="D162" t="inlineStr">
-        <is>
-          <t>Hoyanger</t>
-        </is>
+      <c r="B162" t="n">
+        <v>0</v>
+      </c>
+      <c r="C162" t="n">
+        <v>0</v>
+      </c>
+      <c r="D162" t="n">
+        <v>0</v>
       </c>
       <c r="E162" t="n">
         <v>0</v>
       </c>
       <c r="F162" t="n">
-        <v>253.152</v>
+        <v>0</v>
       </c>
       <c r="G162" t="n">
-        <v>343.0552099764706</v>
+        <v>0</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -5632,29 +5392,23 @@
       <c r="A163" t="n">
         <v>162</v>
       </c>
-      <c r="B163" t="inlineStr">
-        <is>
-          <t>Hydro Aluminium</t>
-        </is>
-      </c>
-      <c r="C163" t="inlineStr">
-        <is>
-          <t>Norway</t>
-        </is>
-      </c>
-      <c r="D163" t="inlineStr">
-        <is>
-          <t>Karmoy</t>
-        </is>
+      <c r="B163" t="n">
+        <v>0</v>
+      </c>
+      <c r="C163" t="n">
+        <v>0</v>
+      </c>
+      <c r="D163" t="n">
+        <v>0</v>
       </c>
       <c r="E163" t="n">
         <v>0</v>
       </c>
       <c r="F163" t="n">
-        <v>253.152</v>
+        <v>0</v>
       </c>
       <c r="G163" t="n">
-        <v>343.0552099764706</v>
+        <v>0</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -5664,29 +5418,23 @@
       <c r="A164" t="n">
         <v>163</v>
       </c>
-      <c r="B164" t="inlineStr">
-        <is>
-          <t>Hydro Aluminium</t>
-        </is>
-      </c>
-      <c r="C164" t="inlineStr">
-        <is>
-          <t>Norway</t>
-        </is>
-      </c>
-      <c r="D164" t="inlineStr">
-        <is>
-          <t>Sunndalsora</t>
-        </is>
+      <c r="B164" t="n">
+        <v>0</v>
+      </c>
+      <c r="C164" t="n">
+        <v>0</v>
+      </c>
+      <c r="D164" t="n">
+        <v>0</v>
       </c>
       <c r="E164" t="n">
         <v>0</v>
       </c>
       <c r="F164" t="n">
-        <v>253.152</v>
+        <v>0</v>
       </c>
       <c r="G164" t="n">
-        <v>343.0552099764706</v>
+        <v>0</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -5696,29 +5444,23 @@
       <c r="A165" t="n">
         <v>164</v>
       </c>
-      <c r="B165" t="inlineStr">
-        <is>
-          <t>Hydro Aluminium Neuss</t>
-        </is>
-      </c>
-      <c r="C165" t="inlineStr">
-        <is>
-          <t>Germany</t>
-        </is>
-      </c>
-      <c r="D165" t="inlineStr">
-        <is>
-          <t>Norf</t>
-        </is>
+      <c r="B165" t="n">
+        <v>0</v>
+      </c>
+      <c r="C165" t="n">
+        <v>0</v>
+      </c>
+      <c r="D165" t="n">
+        <v>0</v>
       </c>
       <c r="E165" t="n">
         <v>0</v>
       </c>
       <c r="F165" t="n">
-        <v>62.09040000000001</v>
+        <v>0</v>
       </c>
       <c r="G165" t="n">
-        <v>8.542762469647061</v>
+        <v>0</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -5728,29 +5470,23 @@
       <c r="A166" t="n">
         <v>165</v>
       </c>
-      <c r="B166" t="inlineStr">
-        <is>
-          <t>Inalum - Asahan</t>
-        </is>
-      </c>
-      <c r="C166" t="inlineStr">
-        <is>
-          <t>Indonesia</t>
-        </is>
-      </c>
-      <c r="D166" t="inlineStr">
-        <is>
-          <t>Kuala Tanjung</t>
-        </is>
+      <c r="B166" t="n">
+        <v>0</v>
+      </c>
+      <c r="C166" t="n">
+        <v>0</v>
+      </c>
+      <c r="D166" t="n">
+        <v>0</v>
       </c>
       <c r="E166" t="n">
         <v>0</v>
       </c>
       <c r="F166" t="n">
-        <v>338925.3</v>
+        <v>0</v>
       </c>
       <c r="G166" t="n">
-        <v>731929520.8680003</v>
+        <v>0</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -5760,29 +5496,23 @@
       <c r="A167" t="n">
         <v>166</v>
       </c>
-      <c r="B167" t="inlineStr">
-        <is>
-          <t>Indal - Hindalco</t>
-        </is>
-      </c>
-      <c r="C167" t="inlineStr">
-        <is>
-          <t>India</t>
-        </is>
-      </c>
-      <c r="D167" t="inlineStr">
-        <is>
-          <t>Hirakud</t>
-        </is>
+      <c r="B167" t="n">
+        <v>0</v>
+      </c>
+      <c r="C167" t="n">
+        <v>0</v>
+      </c>
+      <c r="D167" t="n">
+        <v>0</v>
       </c>
       <c r="E167" t="n">
         <v>0</v>
       </c>
       <c r="F167" t="n">
-        <v>1729.98</v>
+        <v>0</v>
       </c>
       <c r="G167" t="n">
-        <v>18625.47349764706</v>
+        <v>0</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -5792,29 +5522,23 @@
       <c r="A168" t="n">
         <v>167</v>
       </c>
-      <c r="B168" t="inlineStr">
-        <is>
-          <t>Intalco</t>
-        </is>
-      </c>
-      <c r="C168" t="inlineStr">
-        <is>
-          <t>USA</t>
-        </is>
-      </c>
-      <c r="D168" t="inlineStr">
-        <is>
-          <t>Ferndale</t>
-        </is>
+      <c r="B168" t="n">
+        <v>0</v>
+      </c>
+      <c r="C168" t="n">
+        <v>0</v>
+      </c>
+      <c r="D168" t="n">
+        <v>0</v>
       </c>
       <c r="E168" t="n">
         <v>0</v>
       </c>
       <c r="F168" t="n">
-        <v>64.5</v>
+        <v>0</v>
       </c>
       <c r="G168" t="n">
-        <v>9.864705882352942</v>
+        <v>0</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -5824,29 +5548,23 @@
       <c r="A169" t="n">
         <v>168</v>
       </c>
-      <c r="B169" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Iralco </t>
-        </is>
-      </c>
-      <c r="C169" t="inlineStr">
-        <is>
-          <t>Iran</t>
-        </is>
-      </c>
-      <c r="D169" t="inlineStr">
-        <is>
-          <t>Arak</t>
-        </is>
+      <c r="B169" t="n">
+        <v>0</v>
+      </c>
+      <c r="C169" t="n">
+        <v>0</v>
+      </c>
+      <c r="D169" t="n">
+        <v>0</v>
       </c>
       <c r="E169" t="n">
         <v>0</v>
       </c>
       <c r="F169" t="n">
-        <v>1008040.5</v>
+        <v>0</v>
       </c>
       <c r="G169" t="n">
-        <v>6475177800</v>
+        <v>0</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -5856,29 +5574,23 @@
       <c r="A170" t="n">
         <v>169</v>
       </c>
-      <c r="B170" t="inlineStr">
-        <is>
-          <t>IrAZ - Irkutsk Aluminium</t>
-        </is>
-      </c>
-      <c r="C170" t="inlineStr">
-        <is>
-          <t>Russia</t>
-        </is>
-      </c>
-      <c r="D170" t="inlineStr">
-        <is>
-          <t>Shelekevo</t>
-        </is>
+      <c r="B170" t="n">
+        <v>0</v>
+      </c>
+      <c r="C170" t="n">
+        <v>0</v>
+      </c>
+      <c r="D170" t="n">
+        <v>0</v>
       </c>
       <c r="E170" t="n">
         <v>0</v>
       </c>
       <c r="F170" t="n">
-        <v>1592.532</v>
+        <v>0</v>
       </c>
       <c r="G170" t="n">
-        <v>15750.7784928</v>
+        <v>0</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -5888,29 +5600,23 @@
       <c r="A171" t="n">
         <v>170</v>
       </c>
-      <c r="B171" t="inlineStr">
-        <is>
-          <t>ISAL</t>
-        </is>
-      </c>
-      <c r="C171" t="inlineStr">
-        <is>
-          <t>Iceland</t>
-        </is>
-      </c>
-      <c r="D171" t="inlineStr">
-        <is>
-          <t>Straumsvik</t>
-        </is>
+      <c r="B171" t="n">
+        <v>0</v>
+      </c>
+      <c r="C171" t="n">
+        <v>0</v>
+      </c>
+      <c r="D171" t="n">
+        <v>0</v>
       </c>
       <c r="E171" t="n">
         <v>0</v>
       </c>
       <c r="F171" t="n">
-        <v>3027.084</v>
+        <v>0</v>
       </c>
       <c r="G171" t="n">
-        <v>57611.92565378824</v>
+        <v>0</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -5920,29 +5626,23 @@
       <c r="A172" t="n">
         <v>171</v>
       </c>
-      <c r="B172" t="inlineStr">
-        <is>
-          <t>KAP - Kombinat Aluminijuma</t>
-        </is>
-      </c>
-      <c r="C172" t="inlineStr">
-        <is>
-          <t>Montenegro</t>
-        </is>
-      </c>
-      <c r="D172" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Podgorica </t>
-        </is>
+      <c r="B172" t="n">
+        <v>0</v>
+      </c>
+      <c r="C172" t="n">
+        <v>0</v>
+      </c>
+      <c r="D172" t="n">
+        <v>0</v>
       </c>
       <c r="E172" t="n">
         <v>0</v>
       </c>
       <c r="F172" t="n">
-        <v>2580.996</v>
+        <v>0</v>
       </c>
       <c r="G172" t="n">
-        <v>41784.86773637647</v>
+        <v>0</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -5952,29 +5652,23 @@
       <c r="A173" t="n">
         <v>172</v>
       </c>
-      <c r="B173" t="inlineStr">
-        <is>
-          <t>KAZ - Kandalaksha Aluminium</t>
-        </is>
-      </c>
-      <c r="C173" t="inlineStr">
-        <is>
-          <t>Russia</t>
-        </is>
-      </c>
-      <c r="D173" t="inlineStr">
-        <is>
-          <t>Kandalaksha</t>
-        </is>
+      <c r="B173" t="n">
+        <v>0</v>
+      </c>
+      <c r="C173" t="n">
+        <v>0</v>
+      </c>
+      <c r="D173" t="n">
+        <v>0</v>
       </c>
       <c r="E173" t="n">
         <v>0</v>
       </c>
       <c r="F173" t="n">
-        <v>1592.532</v>
+        <v>0</v>
       </c>
       <c r="G173" t="n">
-        <v>15750.7784928</v>
+        <v>0</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -5984,29 +5678,23 @@
       <c r="A174" t="n">
         <v>173</v>
       </c>
-      <c r="B174" t="inlineStr">
-        <is>
-          <t>Khakass Aluminum Works</t>
-        </is>
-      </c>
-      <c r="C174" t="inlineStr">
-        <is>
-          <t>Russia</t>
-        </is>
-      </c>
-      <c r="D174" t="inlineStr">
-        <is>
-          <t>Sayansk</t>
-        </is>
+      <c r="B174" t="n">
+        <v>0</v>
+      </c>
+      <c r="C174" t="n">
+        <v>0</v>
+      </c>
+      <c r="D174" t="n">
+        <v>0</v>
       </c>
       <c r="E174" t="n">
         <v>0</v>
       </c>
       <c r="F174" t="n">
-        <v>1592.532</v>
+        <v>0</v>
       </c>
       <c r="G174" t="n">
-        <v>15750.7784928</v>
+        <v>0</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -6016,29 +5704,23 @@
       <c r="A175" t="n">
         <v>174</v>
       </c>
-      <c r="B175" t="inlineStr">
-        <is>
-          <t>Kitimat</t>
-        </is>
-      </c>
-      <c r="C175" t="inlineStr">
-        <is>
-          <t>Canada</t>
-        </is>
-      </c>
-      <c r="D175" t="inlineStr">
-        <is>
-          <t>Kitimat</t>
-        </is>
+      <c r="B175" t="n">
+        <v>0</v>
+      </c>
+      <c r="C175" t="n">
+        <v>0</v>
+      </c>
+      <c r="D175" t="n">
+        <v>0</v>
       </c>
       <c r="E175" t="n">
         <v>0</v>
       </c>
       <c r="F175" t="n">
-        <v>72.18000000000001</v>
+        <v>0</v>
       </c>
       <c r="G175" t="n">
-        <v>14.57186823529412</v>
+        <v>0</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -6048,29 +5730,23 @@
       <c r="A176" t="n">
         <v>175</v>
       </c>
-      <c r="B176" t="inlineStr">
-        <is>
-          <t>KrAZ - Krasnoyarsk Alumin.</t>
-        </is>
-      </c>
-      <c r="C176" t="inlineStr">
-        <is>
-          <t>Russia</t>
-        </is>
-      </c>
-      <c r="D176" t="inlineStr">
-        <is>
-          <t>Krasnoyarsk</t>
-        </is>
+      <c r="B176" t="n">
+        <v>0</v>
+      </c>
+      <c r="C176" t="n">
+        <v>0</v>
+      </c>
+      <c r="D176" t="n">
+        <v>0</v>
       </c>
       <c r="E176" t="n">
         <v>0</v>
       </c>
       <c r="F176" t="n">
-        <v>1592.532</v>
+        <v>0</v>
       </c>
       <c r="G176" t="n">
-        <v>15750.7784928</v>
+        <v>0</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -6080,29 +5756,23 @@
       <c r="A177" t="n">
         <v>176</v>
       </c>
-      <c r="B177" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Kubikenborg </t>
-        </is>
-      </c>
-      <c r="C177" t="inlineStr">
-        <is>
-          <t>Sweden</t>
-        </is>
-      </c>
-      <c r="D177" t="inlineStr">
-        <is>
-          <t>Sundsvall</t>
-        </is>
+      <c r="B177" t="n">
+        <v>0</v>
+      </c>
+      <c r="C177" t="n">
+        <v>0</v>
+      </c>
+      <c r="D177" t="n">
+        <v>0</v>
       </c>
       <c r="E177" t="n">
         <v>0</v>
       </c>
       <c r="F177" t="n">
-        <v>270.6336</v>
+        <v>0</v>
       </c>
       <c r="G177" t="n">
-        <v>396.8943629590589</v>
+        <v>0</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -6112,29 +5782,23 @@
       <c r="A178" t="n">
         <v>177</v>
       </c>
-      <c r="B178" t="inlineStr">
-        <is>
-          <t>La Coruna</t>
-        </is>
-      </c>
-      <c r="C178" t="inlineStr">
-        <is>
-          <t>Spain</t>
-        </is>
-      </c>
-      <c r="D178" t="inlineStr">
-        <is>
-          <t>La Coruna</t>
-        </is>
+      <c r="B178" t="n">
+        <v>0</v>
+      </c>
+      <c r="C178" t="n">
+        <v>0</v>
+      </c>
+      <c r="D178" t="n">
+        <v>0</v>
       </c>
       <c r="E178" t="n">
         <v>0</v>
       </c>
       <c r="F178" t="n">
-        <v>62.09040000000001</v>
+        <v>0</v>
       </c>
       <c r="G178" t="n">
-        <v>8.542762469647061</v>
+        <v>0</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -6144,29 +5808,23 @@
       <c r="A179" t="n">
         <v>178</v>
       </c>
-      <c r="B179" t="inlineStr">
-        <is>
-          <t>Laterriere</t>
-        </is>
-      </c>
-      <c r="C179" t="inlineStr">
-        <is>
-          <t>Canada</t>
-        </is>
-      </c>
-      <c r="D179" t="inlineStr">
-        <is>
-          <t>Laterriere</t>
-        </is>
+      <c r="B179" t="n">
+        <v>0</v>
+      </c>
+      <c r="C179" t="n">
+        <v>0</v>
+      </c>
+      <c r="D179" t="n">
+        <v>0</v>
       </c>
       <c r="E179" t="n">
         <v>0</v>
       </c>
       <c r="F179" t="n">
-        <v>72.18000000000001</v>
+        <v>0</v>
       </c>
       <c r="G179" t="n">
-        <v>14.57186823529412</v>
+        <v>0</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -6176,29 +5834,23 @@
       <c r="A180" t="n">
         <v>179</v>
       </c>
-      <c r="B180" t="inlineStr">
-        <is>
-          <t>Liberty House</t>
-        </is>
-      </c>
-      <c r="C180" t="inlineStr">
-        <is>
-          <t>France</t>
-        </is>
-      </c>
-      <c r="D180" t="inlineStr">
-        <is>
-          <t>Dunkerque</t>
-        </is>
+      <c r="B180" t="n">
+        <v>0</v>
+      </c>
+      <c r="C180" t="n">
+        <v>0</v>
+      </c>
+      <c r="D180" t="n">
+        <v>0</v>
       </c>
       <c r="E180" t="n">
         <v>0</v>
       </c>
       <c r="F180" t="n">
-        <v>62.09040000000001</v>
+        <v>0</v>
       </c>
       <c r="G180" t="n">
-        <v>8.542762469647061</v>
+        <v>0</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -6208,29 +5860,23 @@
       <c r="A181" t="n">
         <v>180</v>
       </c>
-      <c r="B181" t="inlineStr">
-        <is>
-          <t>Liberty House</t>
-        </is>
-      </c>
-      <c r="C181" t="inlineStr">
-        <is>
-          <t>UK</t>
-        </is>
-      </c>
-      <c r="D181" t="inlineStr">
-        <is>
-          <t>Lochaber</t>
-        </is>
+      <c r="B181" t="n">
+        <v>0</v>
+      </c>
+      <c r="C181" t="n">
+        <v>0</v>
+      </c>
+      <c r="D181" t="n">
+        <v>0</v>
       </c>
       <c r="E181" t="n">
         <v>0</v>
       </c>
       <c r="F181" t="n">
-        <v>59.976</v>
+        <v>0</v>
       </c>
       <c r="G181" t="n">
-        <v>7.443727200000001</v>
+        <v>0</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -6240,29 +5886,23 @@
       <c r="A182" t="n">
         <v>181</v>
       </c>
-      <c r="B182" t="inlineStr">
-        <is>
-          <t>Ma'aden</t>
-        </is>
-      </c>
-      <c r="C182" t="inlineStr">
-        <is>
-          <t>Saudi Arabia</t>
-        </is>
-      </c>
-      <c r="D182" t="inlineStr">
-        <is>
-          <t>Ras Az Zawr</t>
-        </is>
+      <c r="B182" t="n">
+        <v>0</v>
+      </c>
+      <c r="C182" t="n">
+        <v>0</v>
+      </c>
+      <c r="D182" t="n">
+        <v>0</v>
       </c>
       <c r="E182" t="n">
         <v>0</v>
       </c>
       <c r="F182" t="n">
-        <v>130.5192</v>
+        <v>0</v>
       </c>
       <c r="G182" t="n">
-        <v>74.872569408</v>
+        <v>0</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -6272,29 +5912,23 @@
       <c r="A183" t="n">
         <v>182</v>
       </c>
-      <c r="B183" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Magnitude 7 Metals </t>
-        </is>
-      </c>
-      <c r="C183" t="inlineStr">
-        <is>
-          <t>USA</t>
-        </is>
-      </c>
-      <c r="D183" t="inlineStr">
-        <is>
-          <t>New Madrid</t>
-        </is>
+      <c r="B183" t="n">
+        <v>0</v>
+      </c>
+      <c r="C183" t="n">
+        <v>0</v>
+      </c>
+      <c r="D183" t="n">
+        <v>0</v>
       </c>
       <c r="E183" t="n">
         <v>0</v>
       </c>
       <c r="F183" t="n">
-        <v>64.5</v>
+        <v>0</v>
       </c>
       <c r="G183" t="n">
-        <v>9.864705882352942</v>
+        <v>0</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -6304,29 +5938,23 @@
       <c r="A184" t="n">
         <v>183</v>
       </c>
-      <c r="B184" t="inlineStr">
-        <is>
-          <t>Massena West</t>
-        </is>
-      </c>
-      <c r="C184" t="inlineStr">
-        <is>
-          <t>USA</t>
-        </is>
-      </c>
-      <c r="D184" t="inlineStr">
-        <is>
-          <t>Massena West</t>
-        </is>
+      <c r="B184" t="n">
+        <v>0</v>
+      </c>
+      <c r="C184" t="n">
+        <v>0</v>
+      </c>
+      <c r="D184" t="n">
+        <v>0</v>
       </c>
       <c r="E184" t="n">
         <v>0</v>
       </c>
       <c r="F184" t="n">
-        <v>64.5</v>
+        <v>0</v>
       </c>
       <c r="G184" t="n">
-        <v>9.864705882352942</v>
+        <v>0</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -6336,29 +5964,23 @@
       <c r="A185" t="n">
         <v>184</v>
       </c>
-      <c r="B185" t="inlineStr">
-        <is>
-          <t>Mozal</t>
-        </is>
-      </c>
-      <c r="C185" t="inlineStr">
-        <is>
-          <t>Mozambique</t>
-        </is>
-      </c>
-      <c r="D185" t="inlineStr">
-        <is>
-          <t>Maputo</t>
-        </is>
+      <c r="B185" t="n">
+        <v>0</v>
+      </c>
+      <c r="C185" t="n">
+        <v>0</v>
+      </c>
+      <c r="D185" t="n">
+        <v>0</v>
       </c>
       <c r="E185" t="n">
         <v>0</v>
       </c>
       <c r="F185" t="n">
-        <v>393.204</v>
+        <v>0</v>
       </c>
       <c r="G185" t="n">
-        <v>883.7745622588236</v>
+        <v>0</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -6368,29 +5990,23 @@
       <c r="A186" t="n">
         <v>185</v>
       </c>
-      <c r="B186" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Nalco </t>
-        </is>
-      </c>
-      <c r="C186" t="inlineStr">
-        <is>
-          <t>India</t>
-        </is>
-      </c>
-      <c r="D186" t="inlineStr">
-        <is>
-          <t>Angul</t>
-        </is>
+      <c r="B186" t="n">
+        <v>0</v>
+      </c>
+      <c r="C186" t="n">
+        <v>0</v>
+      </c>
+      <c r="D186" t="n">
+        <v>0</v>
       </c>
       <c r="E186" t="n">
         <v>0</v>
       </c>
       <c r="F186" t="n">
-        <v>1729.98</v>
+        <v>0</v>
       </c>
       <c r="G186" t="n">
-        <v>18625.47349764706</v>
+        <v>0</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -6400,29 +6016,23 @@
       <c r="A187" t="n">
         <v>186</v>
       </c>
-      <c r="B187" t="inlineStr">
-        <is>
-          <t>NkAZ - Novokuznetsk Alum.</t>
-        </is>
-      </c>
-      <c r="C187" t="inlineStr">
-        <is>
-          <t>Russia</t>
-        </is>
-      </c>
-      <c r="D187" t="inlineStr">
-        <is>
-          <t>Novokuznetsk</t>
-        </is>
+      <c r="B187" t="n">
+        <v>0</v>
+      </c>
+      <c r="C187" t="n">
+        <v>0</v>
+      </c>
+      <c r="D187" t="n">
+        <v>0</v>
       </c>
       <c r="E187" t="n">
         <v>0</v>
       </c>
       <c r="F187" t="n">
-        <v>1592.532</v>
+        <v>0</v>
       </c>
       <c r="G187" t="n">
-        <v>15750.7784928</v>
+        <v>0</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -6432,29 +6042,23 @@
       <c r="A188" t="n">
         <v>187</v>
       </c>
-      <c r="B188" t="inlineStr">
-        <is>
-          <t>Nordic Aluminium</t>
-        </is>
-      </c>
-      <c r="C188" t="inlineStr">
-        <is>
-          <t>Iceland</t>
-        </is>
-      </c>
-      <c r="D188" t="inlineStr">
-        <is>
-          <t>Grundartangi</t>
-        </is>
+      <c r="B188" t="n">
+        <v>0</v>
+      </c>
+      <c r="C188" t="n">
+        <v>0</v>
+      </c>
+      <c r="D188" t="n">
+        <v>0</v>
       </c>
       <c r="E188" t="n">
         <v>0</v>
       </c>
       <c r="F188" t="n">
-        <v>3027.084</v>
+        <v>0</v>
       </c>
       <c r="G188" t="n">
-        <v>57611.92565378824</v>
+        <v>0</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -6464,29 +6068,23 @@
       <c r="A189" t="n">
         <v>188</v>
       </c>
-      <c r="B189" t="inlineStr">
-        <is>
-          <t>Nzas</t>
-        </is>
-      </c>
-      <c r="C189" t="inlineStr">
-        <is>
-          <t>New Zealand</t>
-        </is>
-      </c>
-      <c r="D189" t="inlineStr">
-        <is>
-          <t>Tiwai Point</t>
-        </is>
+      <c r="B189" t="n">
+        <v>0</v>
+      </c>
+      <c r="C189" t="n">
+        <v>0</v>
+      </c>
+      <c r="D189" t="n">
+        <v>0</v>
       </c>
       <c r="E189" t="n">
         <v>0</v>
       </c>
       <c r="F189" t="n">
-        <v>77.508</v>
+        <v>0</v>
       </c>
       <c r="G189" t="n">
-        <v>18.27912197647059</v>
+        <v>0</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -6496,29 +6094,23 @@
       <c r="A190" t="n">
         <v>189</v>
       </c>
-      <c r="B190" t="inlineStr">
-        <is>
-          <t xml:space="preserve">PAZ </t>
-        </is>
-      </c>
-      <c r="C190" t="inlineStr">
-        <is>
-          <t>Kazakhstan</t>
-        </is>
-      </c>
-      <c r="D190" t="inlineStr">
-        <is>
-          <t>Pavlodar</t>
-        </is>
+      <c r="B190" t="n">
+        <v>0</v>
+      </c>
+      <c r="C190" t="n">
+        <v>0</v>
+      </c>
+      <c r="D190" t="n">
+        <v>0</v>
       </c>
       <c r="E190" t="n">
         <v>0</v>
       </c>
       <c r="F190" t="n">
-        <v>9305.844000000001</v>
+        <v>0</v>
       </c>
       <c r="G190" t="n">
-        <v>549452.9393697884</v>
+        <v>0</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -6528,29 +6120,23 @@
       <c r="A191" t="n">
         <v>190</v>
       </c>
-      <c r="B191" t="inlineStr">
-        <is>
-          <t>Portland</t>
-        </is>
-      </c>
-      <c r="C191" t="inlineStr">
-        <is>
-          <t>Australia</t>
-        </is>
-      </c>
-      <c r="D191" t="inlineStr">
-        <is>
-          <t>Portland</t>
-        </is>
+      <c r="B191" t="n">
+        <v>0</v>
+      </c>
+      <c r="C191" t="n">
+        <v>0</v>
+      </c>
+      <c r="D191" t="n">
+        <v>0</v>
       </c>
       <c r="E191" t="n">
         <v>0</v>
       </c>
       <c r="F191" t="n">
-        <v>75.51600000000001</v>
+        <v>0</v>
       </c>
       <c r="G191" t="n">
-        <v>16.85072908235295</v>
+        <v>0</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -6560,29 +6146,23 @@
       <c r="A192" t="n">
         <v>191</v>
       </c>
-      <c r="B192" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Press Metal </t>
-        </is>
-      </c>
-      <c r="C192" t="inlineStr">
-        <is>
-          <t>Malaysia</t>
-        </is>
-      </c>
-      <c r="D192" t="inlineStr">
-        <is>
-          <t>Muhah</t>
-        </is>
+      <c r="B192" t="n">
+        <v>0</v>
+      </c>
+      <c r="C192" t="n">
+        <v>0</v>
+      </c>
+      <c r="D192" t="n">
+        <v>0</v>
       </c>
       <c r="E192" t="n">
         <v>0</v>
       </c>
       <c r="F192" t="n">
-        <v>140.4528</v>
+        <v>0</v>
       </c>
       <c r="G192" t="n">
-        <v>89.46198929505883</v>
+        <v>0</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -6592,29 +6172,23 @@
       <c r="A193" t="n">
         <v>192</v>
       </c>
-      <c r="B193" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Qatalum </t>
-        </is>
-      </c>
-      <c r="C193" t="inlineStr">
-        <is>
-          <t>Qatar</t>
-        </is>
-      </c>
-      <c r="D193" t="inlineStr">
-        <is>
-          <t>Doha</t>
-        </is>
+      <c r="B193" t="n">
+        <v>0</v>
+      </c>
+      <c r="C193" t="n">
+        <v>0</v>
+      </c>
+      <c r="D193" t="n">
+        <v>0</v>
       </c>
       <c r="E193" t="n">
         <v>0</v>
       </c>
       <c r="F193" t="n">
-        <v>127.9608</v>
+        <v>0</v>
       </c>
       <c r="G193" t="n">
-        <v>71.31872606682354</v>
+        <v>0</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -6624,29 +6198,23 @@
       <c r="A194" t="n">
         <v>193</v>
       </c>
-      <c r="B194" t="inlineStr">
-        <is>
-          <t>Reydarfjordur</t>
-        </is>
-      </c>
-      <c r="C194" t="inlineStr">
-        <is>
-          <t>Iceland</t>
-        </is>
-      </c>
-      <c r="D194" t="inlineStr">
-        <is>
-          <t>Fjardaál</t>
-        </is>
+      <c r="B194" t="n">
+        <v>0</v>
+      </c>
+      <c r="C194" t="n">
+        <v>0</v>
+      </c>
+      <c r="D194" t="n">
+        <v>0</v>
       </c>
       <c r="E194" t="n">
         <v>0</v>
       </c>
       <c r="F194" t="n">
-        <v>3027.084</v>
+        <v>0</v>
       </c>
       <c r="G194" t="n">
-        <v>57611.92565378824</v>
+        <v>0</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
